--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2876" uniqueCount="550">
   <si>
     <t>Path</t>
   </si>
@@ -369,7 +369,94 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.id</t>
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+</t>
+  </si>
+  <si>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+  </si>
+  <si>
+    <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-supporting-info}
+</t>
+  </si>
+  <si>
+    <t>Relevant clinical information in the context of this prescription concerning for example allergies, kidney function, diabetic. This extension allows the use of a codeableConcept or Annotation but when more detailed information can be given, it is RECOMMENDED to express it as structured as possible using the appropriate elements (for general relevant supporting information, this means the use of the .supportingInfo element.) ContraIndications SHALL be expressed using the contraIndication modifierExtension.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>contraIndication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-contraindication}
+</t>
+  </si>
+  <si>
+    <t>Relevant information in the context of a prescription concerning possible contra indication. For example presence of devices or (suspected) pregnancy. When detailed information can be given, it is RECOMMENDED to express it as structured as possible. If prescriber has no knowledge of contra indication, this SHALL be expressed with a nullFlavor ( e.g. ASKU = Information was sought but not found ) in codeableConcept.</t>
+  </si>
+  <si>
+    <t>contrastFluidUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-contrastfluiduse}
+</t>
+  </si>
+  <si>
+    <t>Whether the use of contrast fluid in diagnostic imaging can be defined as 'If necessary' or 'Not permitted.'</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>UHMEP</t>
+  </si>
+  <si>
+    <t>Reference ID of the UHMEP once available there</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -384,7 +471,20 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.extension</t>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -393,195 +493,43 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying the reason for the current state of an event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
-</t>
-  </si>
-  <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
-  </si>
-  <si>
-    <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-supporting-info}
-</t>
-  </si>
-  <si>
-    <t>Relevant clinical information in the context of this prescription concerning for example allergies, kidney function, diabetic. This extension allows the use of a codeableConcept or Annotation but when more detailed information can be given, it is RECOMMENDED to express it as structured as possible using the appropriate elements (for general relevant supporting information, this means the use of the .supportingInfo element.) ContraIndications SHALL be expressed using the contraIndication modifierExtension.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>contraIndication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-contraindication}
-</t>
-  </si>
-  <si>
-    <t>Relevant information in the context of a prescription concerning possible contra indication. For example presence of devices or (suspected) pregnancy. When detailed information can be given, it is RECOMMENDED to express it as structured as possible. If prescriber has no knowledge of contra indication, this SHALL be expressed with a nullFlavor ( e.g. ASKU = Information was sought but not found ) in codeableConcept.</t>
-  </si>
-  <si>
-    <t>contrastFluidUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-contrastfluiduse}
-</t>
-  </si>
-  <si>
-    <t>Whether the use of contrast fluid in diagnostic imaging can be defined as 'If necessary' or 'Not permitted.'</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>UHMEP</t>
-  </si>
-  <si>
-    <t>Reference ID of the UHMEP once available there</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -1164,6 +1112,9 @@
   </si>
   <si>
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.</t>
@@ -1925,7 +1876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN85"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3118,11 +3069,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>44</v>
       </c>
@@ -3131,10 +3084,10 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>44</v>
@@ -3143,13 +3096,13 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3200,41 +3153,43 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AF11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>44</v>
       </c>
@@ -3243,10 +3198,10 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>44</v>
@@ -3255,10 +3210,10 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>99</v>
@@ -3300,19 +3255,19 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3344,7 +3299,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3352,39 +3307,37 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>44</v>
@@ -3414,31 +3367,29 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>44</v>
@@ -3447,7 +3398,7 @@
         <v>44</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>44</v>
@@ -3456,11 +3407,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>44</v>
       </c>
@@ -3469,25 +3422,25 @@
         <v>52</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3514,10 +3467,10 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>44</v>
@@ -3526,29 +3479,31 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>44</v>
@@ -3557,7 +3512,7 @@
         <v>44</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>44</v>
@@ -3566,40 +3521,40 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3626,10 +3581,10 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="s" s="2">
         <v>44</v>
@@ -3650,19 +3605,19 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>44</v>
@@ -3671,7 +3626,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>44</v>
@@ -3680,13 +3635,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>44</v>
       </c>
@@ -3704,18 +3657,20 @@
         <v>44</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3752,19 +3707,17 @@
         <v>44</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3773,33 +3726,33 @@
         <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>44</v>
@@ -3809,27 +3762,29 @@
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3878,7 +3833,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3890,27 +3845,27 @@
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3921,25 +3876,25 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3978,39 +3933,41 @@
         <v>44</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
       </c>
@@ -4018,42 +3975,42 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>144</v>
       </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -4090,19 +4047,19 @@
         <v>44</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -4111,7 +4068,7 @@
         <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>103</v>
@@ -4123,7 +4080,7 @@
         <v>44</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>44</v>
@@ -4132,13 +4089,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>44</v>
       </c>
@@ -4150,25 +4105,29 @@
         <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>53</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
       </c>
@@ -4192,13 +4151,13 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
@@ -4216,28 +4175,28 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>44</v>
@@ -4248,7 +4207,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4259,10 +4218,10 @@
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>44</v>
@@ -4271,18 +4230,20 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
       </c>
@@ -4306,35 +4267,37 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>44</v>
@@ -4343,34 +4306,32 @@
         <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>160</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>52</v>
@@ -4385,30 +4346,32 @@
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>44</v>
@@ -4444,13 +4407,13 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>44</v>
@@ -4459,24 +4422,24 @@
         <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>160</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4484,7 +4447,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>52</v>
@@ -4496,18 +4459,20 @@
         <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -4520,7 +4485,7 @@
         <v>44</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>44</v>
@@ -4556,7 +4521,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4568,16 +4533,16 @@
         <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4588,18 +4553,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4608,20 +4573,18 @@
         <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4658,40 +4621,40 @@
         <v>44</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4702,7 +4665,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4719,26 +4682,24 @@
         <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4762,13 +4723,13 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4786,7 +4747,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4804,10 +4765,10 @@
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4818,7 +4779,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4829,7 +4790,7 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4841,20 +4802,18 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4878,13 +4837,13 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
@@ -4902,13 +4861,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4917,13 +4876,13 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4934,7 +4893,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4942,10 +4901,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4960,29 +4919,27 @@
         <v>66</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>44</v>
@@ -5018,13 +4975,13 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
@@ -5033,13 +4990,13 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -5050,18 +5007,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>44</v>
@@ -5073,17 +5030,15 @@
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -5096,7 +5051,7 @@
         <v>44</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>44</v>
@@ -5132,13 +5087,13 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
@@ -5147,13 +5102,13 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>44</v>
@@ -5164,18 +5119,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -5187,13 +5142,13 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5244,13 +5199,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -5259,13 +5214,13 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>44</v>
@@ -5274,13 +5229,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5290,7 +5245,7 @@
         <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>44</v>
@@ -5299,18 +5254,20 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5358,7 +5315,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5373,13 +5330,13 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>44</v>
@@ -5388,9 +5345,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5398,31 +5355,31 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5448,13 +5405,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5472,13 +5429,13 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
@@ -5487,24 +5444,24 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5512,31 +5469,31 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5562,13 +5519,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5586,13 +5543,13 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
@@ -5601,38 +5558,38 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
@@ -5641,16 +5598,20 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5674,13 +5635,11 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5698,7 +5657,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5713,16 +5672,16 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5730,18 +5689,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -5750,16 +5709,16 @@
         <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5810,28 +5769,28 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
@@ -5840,45 +5799,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5914,40 +5871,40 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>258</v>
+        <v>143</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5956,9 +5913,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5966,33 +5923,35 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -6016,13 +5975,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -6040,13 +5999,13 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -6055,24 +6014,24 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6080,7 +6039,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>52</v>
@@ -6089,23 +6048,21 @@
         <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -6130,13 +6087,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -6154,10 +6111,10 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>270</v>
+        <v>142</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>52</v>
@@ -6166,63 +6123,61 @@
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -6246,29 +6201,31 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6280,19 +6237,19 @@
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -6300,7 +6257,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6320,25 +6277,29 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>44</v>
@@ -6380,7 +6341,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6392,16 +6353,16 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -6412,18 +6373,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6432,19 +6393,19 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>166</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6482,40 +6443,40 @@
         <v>44</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>119</v>
+        <v>296</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>116</v>
+        <v>298</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
@@ -6526,7 +6487,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6537,7 +6498,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>44</v>
@@ -6549,26 +6510,24 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>44</v>
@@ -6610,13 +6569,13 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>44</v>
@@ -6628,10 +6587,10 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6642,7 +6601,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6662,19 +6621,21 @@
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>114</v>
+        <v>309</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6722,7 +6683,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>115</v>
+        <v>311</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6734,16 +6695,16 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>116</v>
+        <v>313</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
@@ -6754,18 +6715,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6774,21 +6735,23 @@
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>166</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6824,40 +6787,40 @@
         <v>44</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>119</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6868,7 +6831,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6891,26 +6854,26 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>44</v>
@@ -6952,7 +6915,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6970,10 +6933,10 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
@@ -6984,7 +6947,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7007,22 +6970,22 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="Q45" t="s" s="2">
         <v>44</v>
       </c>
@@ -7042,13 +7005,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -7066,7 +7029,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7081,16 +7044,16 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -7098,7 +7061,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7115,30 +7078,34 @@
         <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="N46" t="s" s="2">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="Q46" t="s" s="2">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>44</v>
@@ -7180,7 +7147,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7195,13 +7162,13 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7210,13 +7177,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7226,7 +7193,7 @@
         <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -7235,18 +7202,18 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7270,13 +7237,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -7294,7 +7261,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7309,38 +7276,38 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
@@ -7349,20 +7316,18 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>332</v>
+        <v>162</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7386,40 +7351,38 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>44</v>
+        <v>368</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>64</v>
@@ -7428,35 +7391,37 @@
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="C49" t="s" s="2">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
@@ -7465,20 +7430,18 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7502,13 +7465,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>44</v>
+        <v>368</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7526,16 +7489,16 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>64</v>
@@ -7544,21 +7507,21 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7578,25 +7541,23 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>349</v>
+        <v>140</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>350</v>
+        <v>141</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P50" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7616,13 +7577,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>353</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7640,7 +7601,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>348</v>
+        <v>142</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7652,19 +7613,19 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>354</v>
+        <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>356</v>
+        <v>143</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7672,49 +7633,45 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>359</v>
+        <v>146</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
+        <v>147</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P51" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7746,40 +7703,40 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>358</v>
+        <v>150</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>365</v>
+        <v>143</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
@@ -7788,23 +7745,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>44</v>
@@ -7813,18 +7770,20 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>368</v>
+        <v>274</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>275</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7848,13 +7807,13 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7872,13 +7831,13 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
@@ -7887,57 +7846,55 @@
         <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>373</v>
+        <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>374</v>
+        <v>279</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>376</v>
+        <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>377</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7962,67 +7919,67 @@
         <v>44</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>378</v>
+        <v>142</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>375</v>
+        <v>143</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>377</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8032,25 +7989,25 @@
         <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>389</v>
+        <v>146</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>381</v>
+        <v>147</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>382</v>
+        <v>148</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8076,31 +8033,31 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>378</v>
+        <v>150</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -8109,30 +8066,30 @@
         <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>375</v>
+        <v>143</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>377</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8140,7 +8097,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>52</v>
@@ -8152,25 +8109,29 @@
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>44</v>
+        <v>382</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>44</v>
@@ -8212,7 +8173,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8224,16 +8185,16 @@
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8244,18 +8205,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
@@ -8264,19 +8225,19 @@
         <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>166</v>
+        <v>293</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8314,40 +8275,40 @@
         <v>44</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>119</v>
+        <v>296</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>116</v>
+        <v>298</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8358,7 +8319,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8366,10 +8327,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8381,19 +8342,17 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8418,13 +8377,13 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>394</v>
+        <v>44</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>44</v>
@@ -8442,13 +8401,13 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
@@ -8460,10 +8419,10 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8474,7 +8433,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8494,19 +8453,21 @@
         <v>44</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>114</v>
+        <v>309</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8554,7 +8515,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>115</v>
+        <v>311</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8566,16 +8527,16 @@
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>116</v>
+        <v>313</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8586,18 +8547,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>44</v>
@@ -8606,21 +8567,23 @@
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>166</v>
+        <v>316</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8656,40 +8619,40 @@
         <v>44</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>119</v>
+        <v>320</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8700,7 +8663,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8708,7 +8671,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>52</v>
@@ -8723,26 +8686,26 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>44</v>
@@ -8784,7 +8747,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8802,10 +8765,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8816,7 +8779,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8839,18 +8802,18 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>54</v>
+        <v>389</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8898,7 +8861,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8916,10 +8879,10 @@
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>315</v>
+        <v>393</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
@@ -8928,9 +8891,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8944,7 +8907,7 @@
         <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>44</v>
@@ -8953,18 +8916,16 @@
         <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -9012,10 +8973,10 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>52</v>
@@ -9027,28 +8988,28 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>44</v>
+        <v>398</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>323</v>
+        <v>400</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>44</v>
+        <v>401</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>44</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9067,18 +9028,16 @@
         <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>54</v>
+        <v>405</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -9126,7 +9085,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9141,28 +9100,28 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>44</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>44</v>
+        <v>414</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9172,7 +9131,7 @@
         <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>44</v>
@@ -9181,20 +9140,16 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>332</v>
+        <v>415</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9242,7 +9197,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>337</v>
+        <v>413</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9257,24 +9212,24 @@
         <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>338</v>
+        <v>419</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>44</v>
+        <v>421</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>44</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9297,20 +9252,16 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>54</v>
+        <v>424</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>341</v>
+        <v>425</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>44</v>
       </c>
@@ -9334,13 +9285,13 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -9358,7 +9309,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>345</v>
+        <v>423</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9376,25 +9327,25 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>44</v>
+        <v>430</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9404,7 +9355,7 @@
         <v>52</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>44</v>
@@ -9413,18 +9364,16 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>408</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9472,7 +9421,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9487,28 +9436,28 @@
         <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>44</v>
+        <v>439</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>44</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>44</v>
+        <v>442</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9527,15 +9476,17 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9584,10 +9535,10 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>52</v>
@@ -9599,28 +9550,28 @@
         <v>64</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>418</v>
+        <v>451</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9630,7 +9581,7 @@
         <v>52</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>44</v>
@@ -9639,15 +9590,17 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>421</v>
+        <v>162</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -9672,13 +9625,13 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>44</v>
+        <v>458</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9696,7 +9649,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9711,35 +9664,35 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>428</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>53</v>
@@ -9751,15 +9704,17 @@
         <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9808,13 +9763,13 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>44</v>
@@ -9823,24 +9778,24 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>438</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9851,7 +9806,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>44</v>
@@ -9863,13 +9818,13 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>440</v>
+        <v>162</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9896,13 +9851,13 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>129</v>
+        <v>354</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9920,13 +9875,13 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>44</v>
@@ -9941,32 +9896,32 @@
         <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>446</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>44</v>
@@ -9975,13 +9930,13 @@
         <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10032,13 +9987,13 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>44</v>
@@ -10047,35 +10002,35 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>452</v>
+        <v>44</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>456</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>53</v>
@@ -10087,16 +10042,16 @@
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>459</v>
+        <v>162</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10122,13 +10077,13 @@
         <v>44</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>44</v>
+        <v>486</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>44</v>
+        <v>487</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>44</v>
@@ -10146,13 +10101,13 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>44</v>
@@ -10161,38 +10116,38 @@
         <v>64</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>467</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>469</v>
+        <v>44</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>44</v>
@@ -10201,16 +10156,16 @@
         <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>135</v>
+        <v>493</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10236,13 +10191,13 @@
         <v>44</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>473</v>
+        <v>44</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>474</v>
+        <v>44</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>44</v>
@@ -10260,13 +10215,13 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
@@ -10275,28 +10230,28 @@
         <v>64</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10306,26 +10261,24 @@
         <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10374,7 +10327,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10389,28 +10342,28 @@
         <v>64</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>478</v>
+        <v>44</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>44</v>
+        <v>508</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10420,24 +10373,26 @@
         <v>43</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>135</v>
+        <v>509</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>44</v>
@@ -10462,13 +10417,13 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>491</v>
+        <v>44</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>492</v>
+        <v>44</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10486,7 +10441,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10501,16 +10456,16 @@
         <v>64</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>44</v>
+        <v>513</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>44</v>
+        <v>514</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>478</v>
+        <v>44</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
@@ -10518,7 +10473,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10541,15 +10496,17 @@
         <v>53</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>44</v>
@@ -10598,7 +10555,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10616,13 +10573,13 @@
         <v>44</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>44</v>
+        <v>521</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>478</v>
+        <v>44</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
@@ -10630,11 +10587,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>44</v>
+        <v>524</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10653,18 +10610,20 @@
         <v>53</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>44</v>
       </c>
@@ -10688,13 +10647,13 @@
         <v>44</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>129</v>
+        <v>354</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>44</v>
@@ -10712,7 +10671,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10727,24 +10686,24 @@
         <v>64</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>504</v>
+        <v>44</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>507</v>
+        <v>44</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>44</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10764,20 +10723,18 @@
         <v>44</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>510</v>
+        <v>12</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>44</v>
@@ -10826,7 +10783,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10841,24 +10798,24 @@
         <v>64</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>514</v>
+        <v>371</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>507</v>
+        <v>44</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>44</v>
+        <v>538</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10869,25 +10826,25 @@
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>517</v>
+        <v>54</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10938,13 +10895,13 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>44</v>
@@ -10953,13 +10910,13 @@
         <v>64</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>520</v>
+        <v>44</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>521</v>
+        <v>371</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>44</v>
@@ -10968,13 +10925,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>524</v>
+        <v>44</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10984,7 +10941,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>44</v>
@@ -10993,16 +10950,16 @@
         <v>44</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11052,7 +11009,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11067,591 +11024,23 @@
         <v>64</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>530</v>
+        <v>95</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN85" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN85">
+  <autoFilter ref="A1:AN80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11661,7 +11050,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="585">
   <si>
     <t>Property</t>
   </si>
@@ -1983,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2071,77 +2071,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="611">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -476,6 +476,86 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying the reason for the current state of an event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+  </si>
+  <si>
     <t>informParty</t>
   </si>
   <si>
@@ -486,6 +566,35 @@
     <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
+    <t>coprescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+</t>
+  </si>
+  <si>
+    <t>Other parties that have to take part in the prescription.</t>
+  </si>
+  <si>
+    <t>Other practitioners that must take part in this prescripiton</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {resource-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Validity period of the prescription</t>
+  </si>
+  <si>
+    <t>The period during which the resource content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
     <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
   </si>
   <si>
@@ -566,18 +675,6 @@
     <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
@@ -594,12 +691,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.use</t>
   </si>
   <si>
@@ -633,10 +724,6 @@
     <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -647,9 +734,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -891,7 +975,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1221,9 +1305,6 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.</t>
   </si>
   <si>
@@ -1632,7 +1713,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1666,7 +1747,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -2160,7 +2241,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN80"/>
+  <dimension ref="A1:AN87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3137,7 +3218,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3353,13 +3434,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>147</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3368,10 +3447,10 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3380,13 +3459,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3437,19 +3516,19 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3458,7 +3537,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3467,13 +3546,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3482,10 +3559,10 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3494,10 +3571,10 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>134</v>
@@ -3539,19 +3616,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3583,7 +3660,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3591,37 +3668,39 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3651,29 +3730,31 @@
         <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AB13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>79</v>
@@ -3682,7 +3763,7 @@
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>79</v>
@@ -3691,13 +3772,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3706,25 +3785,25 @@
         <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3751,10 +3830,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3763,31 +3842,29 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
@@ -3796,7 +3873,7 @@
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3805,40 +3882,40 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3865,13 +3942,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3889,19 +3964,19 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
@@ -3910,7 +3985,7 @@
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3919,11 +3994,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3941,20 +4018,18 @@
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3991,17 +4066,19 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4010,33 +4087,33 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4046,29 +4123,27 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -4117,7 +4192,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4126,32 +4201,34 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4163,7 +4240,7 @@
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -4172,15 +4249,17 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4229,19 +4308,19 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4250,7 +4329,7 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4259,13 +4338,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4275,7 +4356,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4284,17 +4365,15 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4331,19 +4410,19 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4364,7 +4443,7 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4375,7 +4454,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4386,7 +4465,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4395,23 +4474,19 @@
         <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4435,52 +4510,50 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4489,45 +4562,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4551,13 +4622,13 @@
         <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>79</v>
@@ -4575,28 +4646,28 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4605,57 +4676,55 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>79</v>
@@ -4691,28 +4760,28 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4723,7 +4792,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4731,13 +4800,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4746,16 +4815,16 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4769,7 +4838,7 @@
         <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>79</v>
@@ -4793,25 +4862,23 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -4820,26 +4887,28 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4860,15 +4929,17 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4917,13 +4988,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4932,24 +5003,24 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4969,20 +5040,18 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5031,7 +5100,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5043,16 +5112,16 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5063,11 +5132,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5083,19 +5152,19 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5133,19 +5202,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5157,16 +5226,16 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5177,7 +5246,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5188,30 +5257,32 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5235,13 +5306,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5259,13 +5330,13 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -5274,13 +5345,13 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5291,18 +5362,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5314,16 +5385,20 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5347,13 +5422,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5371,13 +5446,13 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
@@ -5386,13 +5461,13 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5403,18 +5478,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5426,28 +5501,32 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -5483,13 +5562,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5498,13 +5577,13 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5513,23 +5592,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5538,20 +5617,18 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5563,7 +5640,7 @@
         <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>79</v>
@@ -5599,7 +5676,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5614,13 +5691,13 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5629,9 +5706,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5639,32 +5716,30 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5689,13 +5764,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5713,10 +5788,10 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>87</v>
@@ -5728,24 +5803,24 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5753,7 +5828,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5762,22 +5837,22 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5803,13 +5878,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5827,10 +5902,10 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -5842,24 +5917,24 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5867,13 +5942,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5882,20 +5957,18 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5919,11 +5992,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5941,7 +6016,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5956,16 +6031,16 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>145</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5973,7 +6048,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5984,7 +6059,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5993,18 +6068,20 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6053,28 +6130,28 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6085,11 +6162,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6105,20 +6182,18 @@
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6155,19 +6230,19 @@
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6179,16 +6254,16 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6199,11 +6274,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6222,20 +6297,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6283,7 +6354,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6298,13 +6369,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6313,13 +6384,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6329,25 +6400,29 @@
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6395,7 +6470,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6407,16 +6482,16 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6425,41 +6500,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>181</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>182</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>183</v>
+        <v>307</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6485,63 +6560,63 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6549,7 +6624,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
@@ -6558,32 +6633,30 @@
         <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>79</v>
@@ -6601,13 +6674,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6625,10 +6698,10 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>87</v>
@@ -6640,24 +6713,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>325</v>
+        <v>130</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6665,13 +6738,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6680,18 +6753,20 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6715,13 +6790,11 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6739,13 +6812,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6757,13 +6830,13 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6771,7 +6844,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6791,27 +6864,25 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>149</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>79</v>
@@ -6853,7 +6924,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>339</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6865,16 +6936,16 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>341</v>
+        <v>151</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6885,18 +6956,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6905,21 +6976,21 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>343</v>
+        <v>212</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6955,40 +7026,40 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>346</v>
+        <v>154</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>348</v>
+        <v>151</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6999,7 +7070,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7010,7 +7081,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7022,19 +7093,19 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7083,13 +7154,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7101,10 +7172,10 @@
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7115,7 +7186,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7135,23 +7206,19 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>359</v>
+        <v>148</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7199,7 +7266,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>363</v>
+        <v>150</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7211,16 +7278,16 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>365</v>
+        <v>151</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7231,18 +7298,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7251,25 +7318,25 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>212</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P45" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7289,55 +7356,55 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>366</v>
+        <v>154</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>374</v>
+        <v>151</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7345,7 +7412,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7362,35 +7429,33 @@
         <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="Q46" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="R46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7431,7 +7496,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7446,13 +7511,13 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7461,13 +7526,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7477,7 +7542,7 @@
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7486,16 +7551,16 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7521,13 +7586,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7545,7 +7610,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7560,38 +7625,38 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7600,24 +7665,24 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7635,38 +7700,40 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AB48" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>99</v>
@@ -7675,37 +7742,35 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7714,18 +7779,18 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7749,13 +7814,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7773,16 +7838,16 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
@@ -7791,21 +7856,21 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7825,19 +7890,23 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>377</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7885,7 +7954,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7897,16 +7966,16 @@
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7917,18 +7986,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -7937,21 +8006,23 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>181</v>
+        <v>386</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>182</v>
+        <v>387</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7987,40 +8058,40 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>185</v>
+        <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>178</v>
+        <v>392</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8031,7 +8102,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8042,7 +8113,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -8054,24 +8125,22 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>308</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="Q52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8091,13 +8160,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8115,13 +8184,13 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
@@ -8130,16 +8199,16 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>315</v>
+        <v>401</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8147,7 +8216,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8164,26 +8233,32 @@
         <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>377</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>175</v>
+        <v>404</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="Q53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8227,7 +8302,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>177</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8239,16 +8314,16 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>178</v>
+        <v>410</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8257,41 +8332,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>180</v>
+        <v>412</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>181</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>182</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>183</v>
+        <v>415</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8317,77 +8392,77 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>178</v>
+        <v>420</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8396,26 +8471,24 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>320</v>
+        <v>426</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>79</v>
@@ -8433,40 +8506,38 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="AB55" s="2"/>
       <c r="AC55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>99</v>
@@ -8475,35 +8546,37 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>325</v>
+        <v>432</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8512,16 +8585,16 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>328</v>
+        <v>434</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>329</v>
+        <v>426</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>330</v>
+        <v>427</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8547,13 +8620,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8571,16 +8644,16 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8589,21 +8662,21 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>332</v>
+        <v>432</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8611,7 +8684,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
@@ -8623,21 +8696,19 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>336</v>
+        <v>149</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8685,7 +8756,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>339</v>
+        <v>150</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8697,16 +8768,16 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>341</v>
+        <v>151</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8717,18 +8788,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8737,21 +8808,21 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>343</v>
+        <v>212</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8787,40 +8858,40 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>346</v>
+        <v>154</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>348</v>
+        <v>151</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8831,7 +8902,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8842,7 +8913,7 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8854,19 +8925,19 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8891,13 +8962,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8915,13 +8986,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -8933,10 +9004,10 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8947,7 +9018,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8967,23 +9038,19 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>359</v>
+        <v>148</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9031,7 +9098,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>363</v>
+        <v>150</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9043,16 +9110,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>365</v>
+        <v>151</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9063,18 +9130,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9083,21 +9150,21 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>425</v>
+        <v>212</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9133,40 +9200,40 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>423</v>
+        <v>154</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9175,9 +9242,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9191,7 +9258,7 @@
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9200,22 +9267,26 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>430</v>
+        <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>431</v>
+        <v>346</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>79</v>
@@ -9257,10 +9328,10 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>429</v>
+        <v>351</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>87</v>
@@ -9272,28 +9343,28 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>434</v>
+        <v>352</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>435</v>
+        <v>353</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9312,15 +9383,17 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>440</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>441</v>
+        <v>355</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9369,7 +9442,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>438</v>
+        <v>358</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9384,38 +9457,38 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>444</v>
+        <v>359</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9424,16 +9497,18 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>450</v>
+        <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>451</v>
+        <v>362</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>452</v>
+        <v>363</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9481,7 +9556,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9496,24 +9571,24 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9536,16 +9611,18 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>459</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9569,13 +9646,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9593,7 +9670,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>458</v>
+        <v>373</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9611,25 +9688,25 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>464</v>
+        <v>375</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9639,7 +9716,7 @@
         <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9648,16 +9725,20 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>468</v>
+        <v>377</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>469</v>
+        <v>378</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9705,7 +9786,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>466</v>
+        <v>382</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9720,38 +9801,38 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>472</v>
+        <v>383</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>473</v>
+        <v>384</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9760,18 +9841,20 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>478</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>480</v>
+        <v>387</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9819,7 +9902,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>476</v>
+        <v>390</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9834,28 +9917,28 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>483</v>
+        <v>391</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>484</v>
+        <v>392</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9865,7 +9948,7 @@
         <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9874,18 +9957,18 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>197</v>
+        <v>450</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>489</v>
+        <v>451</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9909,13 +9992,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9933,7 +10016,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9948,16 +10031,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>495</v>
+        <v>432</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>496</v>
+        <v>454</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9965,18 +10048,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>498</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>88</v>
@@ -9988,17 +10071,15 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10047,13 +10128,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>498</v>
+        <v>455</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -10062,35 +10143,35 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -10102,13 +10183,13 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>197</v>
+        <v>466</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10135,13 +10216,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10159,13 +10240,13 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -10174,38 +10255,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10214,13 +10295,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>514</v>
+        <v>476</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10271,13 +10352,13 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
@@ -10286,24 +10367,24 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10314,10 +10395,10 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10326,17 +10407,15 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>197</v>
+        <v>485</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10361,13 +10440,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>389</v>
+        <v>165</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10385,13 +10464,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10400,38 +10479,38 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10440,17 +10519,15 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10499,13 +10576,13 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -10514,55 +10591,57 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>532</v>
+        <v>497</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10611,13 +10690,13 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
@@ -10626,35 +10705,35 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>88</v>
@@ -10663,19 +10742,19 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>544</v>
+        <v>162</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10701,13 +10780,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10725,13 +10804,13 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10740,28 +10819,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10771,7 +10850,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10780,16 +10859,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10839,7 +10918,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10854,28 +10933,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10885,7 +10964,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -10894,20 +10973,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -10931,13 +11006,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>389</v>
+        <v>165</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -10955,7 +11030,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10973,21 +11048,21 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>567</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11007,16 +11082,16 @@
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>48</v>
+        <v>534</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>570</v>
+        <v>541</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11067,7 +11142,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11082,24 +11157,24 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>573</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11110,7 +11185,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>88</v>
@@ -11122,15 +11197,17 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11155,13 +11232,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11179,13 +11256,13 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -11194,16 +11271,16 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>406</v>
+        <v>550</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11211,7 +11288,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11231,19 +11308,19 @@
         <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11293,7 +11370,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11308,23 +11385,817 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AL87" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN80">
+  <autoFilter ref="A1:AN87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11334,7 +12205,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="616">
   <si>
     <t>Property</t>
   </si>
@@ -426,6 +426,9 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -593,6 +596,19 @@
   </si>
   <si>
     <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
+    <t>executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+</t>
+  </si>
+  <si>
+    <t>BeExecutionPeriod</t>
+  </si>
+  <si>
+    <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
     <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
@@ -2241,7 +2257,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3218,7 +3234,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3233,13 +3249,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3278,17 +3294,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3300,7 +3316,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3323,7 +3339,7 @@
         <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
@@ -3345,16 +3361,16 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3404,7 +3420,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3413,19 +3429,19 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3436,7 +3452,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3462,10 +3478,10 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3516,7 +3532,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3537,7 +3553,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3548,7 +3564,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3571,13 +3587,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3616,19 +3632,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3640,7 +3656,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3660,7 +3676,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3686,13 +3702,13 @@
         <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3700,7 +3716,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3742,7 +3758,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>87</v>
@@ -3774,7 +3790,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3797,13 +3813,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3830,10 +3846,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3842,17 +3858,17 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3884,10 +3900,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -3909,13 +3925,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3942,11 +3958,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3964,7 +3980,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3999,7 +4015,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4021,13 +4037,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4078,7 +4094,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4087,10 +4103,10 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
@@ -4113,7 +4129,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4135,13 +4151,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4192,7 +4208,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4201,10 +4217,10 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4227,14 +4243,14 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
@@ -4249,16 +4265,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4308,7 +4324,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4317,10 +4333,10 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4343,14 +4359,14 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>78</v>
@@ -4365,13 +4381,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4422,7 +4438,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4431,10 +4447,10 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4452,11 +4468,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4468,22 +4486,22 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4522,17 +4540,19 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4544,7 +4564,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4562,25 +4582,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>88</v>
@@ -4589,13 +4607,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4634,19 +4652,17 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4655,10 +4671,10 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
@@ -4678,20 +4694,20 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4703,13 +4719,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4760,7 +4776,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4769,10 +4785,10 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -4790,11 +4806,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4803,29 +4821,27 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4862,17 +4878,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4881,34 +4899,32 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4917,10 +4933,10 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4929,16 +4945,16 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4976,19 +4992,17 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5003,26 +5017,28 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5040,18 +5056,20 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5100,50 +5118,50 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5155,17 +5173,15 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5202,31 +5218,31 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>79</v>
@@ -5235,7 +5251,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5250,39 +5266,37 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N27" t="s" s="2">
         <v>219</v>
       </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5306,52 +5320,52 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5362,7 +5376,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5379,25 +5393,25 @@
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5422,13 +5436,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5446,7 +5460,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5464,10 +5478,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5478,7 +5492,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5486,7 +5500,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5501,32 +5515,32 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -5538,13 +5552,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5562,7 +5576,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5580,10 +5594,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5594,7 +5608,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5617,30 +5631,32 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>79</v>
@@ -5676,7 +5692,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5694,10 +5710,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5708,7 +5724,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5716,7 +5732,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5731,15 +5747,17 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5752,7 +5770,7 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5788,7 +5806,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5806,10 +5824,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5820,7 +5838,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5843,17 +5861,15 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5902,7 +5918,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5920,10 +5936,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5934,7 +5950,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5945,7 +5961,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5957,16 +5973,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6016,13 +6032,13 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -6031,13 +6047,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6048,7 +6064,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6071,16 +6087,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6130,7 +6146,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6145,13 +6161,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6166,7 +6182,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6185,15 +6201,17 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6257,13 +6275,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>285</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6274,11 +6292,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6297,13 +6315,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6354,7 +6372,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6369,38 +6387,38 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6409,20 +6427,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>197</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6470,13 +6484,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6485,13 +6499,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6502,15 +6516,15 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>87</v>
@@ -6519,24 +6533,26 @@
         <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6560,13 +6576,13 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6584,10 +6600,10 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>87</v>
@@ -6599,24 +6615,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6630,7 +6646,7 @@
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>88</v>
@@ -6642,13 +6658,13 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6674,13 +6690,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6698,7 +6714,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>87</v>
@@ -6713,24 +6729,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>130</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6744,29 +6760,27 @@
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6790,11 +6804,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6812,13 +6828,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6827,24 +6843,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6852,31 +6868,35 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>148</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6900,13 +6920,11 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6924,31 +6942,31 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6956,18 +6974,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6979,17 +6997,15 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7026,31 +7042,31 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
@@ -7059,7 +7075,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7070,11 +7086,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7090,23 +7106,21 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7142,19 +7156,19 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>155</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7166,16 +7180,16 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>152</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7186,7 +7200,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7197,7 +7211,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7206,19 +7220,23 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>340</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>148</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7266,28 +7284,28 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>150</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7298,18 +7316,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7321,17 +7339,15 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7368,31 +7384,31 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7401,7 +7417,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7412,18 +7428,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7432,29 +7448,27 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>346</v>
+        <v>217</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>347</v>
+        <v>218</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>79</v>
@@ -7484,40 +7498,40 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>155</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>353</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7528,7 +7542,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7551,24 +7565,26 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>79</v>
@@ -7610,7 +7626,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7628,10 +7644,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7642,7 +7658,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7665,24 +7681,24 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7724,7 +7740,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7742,10 +7758,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7756,7 +7772,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7779,24 +7795,24 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7838,7 +7854,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7856,10 +7872,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7870,7 +7886,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7893,19 +7909,17 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7954,7 +7968,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7972,10 +7986,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7986,7 +8000,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8009,19 +8023,19 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>382</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8070,7 +8084,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8088,10 +8102,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8102,7 +8116,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8125,66 +8139,68 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="O52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="Q52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8199,16 +8215,16 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8216,7 +8232,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8233,31 +8249,27 @@
         <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>377</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="Q53" t="s" s="2">
         <v>79</v>
@@ -8278,13 +8290,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8302,7 +8314,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8317,28 +8329,28 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8348,31 +8360,35 @@
         <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P54" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8392,13 +8408,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8416,7 +8432,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8431,35 +8447,35 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -8471,16 +8487,16 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8506,67 +8522,67 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AB55" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8585,16 +8601,16 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8620,31 +8636,29 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AB56" s="2"/>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8653,7 +8667,7 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8662,52 +8676,56 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>148</v>
+        <v>439</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8732,13 +8750,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8756,50 +8774,50 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>150</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>151</v>
+        <v>425</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8811,17 +8829,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8858,31 +8874,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8891,7 +8907,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8902,11 +8918,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8922,23 +8938,21 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>335</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>336</v>
+        <v>217</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8962,31 +8976,31 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>340</v>
+        <v>155</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8998,16 +9012,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>342</v>
+        <v>152</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9018,7 +9032,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9029,7 +9043,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9038,19 +9052,23 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>340</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>148</v>
+        <v>341</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9074,13 +9092,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9098,28 +9116,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>150</v>
+        <v>345</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9130,18 +9148,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9153,17 +9171,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9200,31 +9216,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9233,7 +9249,7 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9244,18 +9260,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9264,29 +9280,27 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>346</v>
+        <v>217</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>347</v>
+        <v>218</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>79</v>
@@ -9316,40 +9330,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>351</v>
+        <v>155</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>353</v>
+        <v>152</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9360,7 +9374,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9368,7 +9382,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
@@ -9383,24 +9397,26 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>79</v>
@@ -9442,7 +9458,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9460,10 +9476,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9474,7 +9490,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9482,7 +9498,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
@@ -9497,18 +9513,18 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9556,7 +9572,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9574,10 +9590,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9588,7 +9604,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9596,7 +9612,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>87</v>
@@ -9611,17 +9627,17 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9670,7 +9686,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9688,10 +9704,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9702,7 +9718,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9725,19 +9741,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9786,7 +9800,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9804,10 +9818,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9818,7 +9832,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9841,19 +9855,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>382</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9902,7 +9916,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9920,10 +9934,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9934,7 +9948,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9957,17 +9971,19 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>450</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N68" t="s" s="2">
-        <v>453</v>
+        <v>394</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10016,7 +10032,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10034,21 +10050,21 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10056,13 +10072,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10071,16 +10087,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10128,10 +10146,10 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>87</v>
@@ -10143,38 +10161,38 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10183,13 +10201,13 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10240,10 +10258,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10255,28 +10273,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10286,7 +10304,7 @@
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10295,13 +10313,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10352,7 +10370,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10367,28 +10385,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10398,7 +10416,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10407,13 +10425,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10440,13 +10458,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10464,7 +10482,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10479,28 +10497,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10510,7 +10528,7 @@
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10519,13 +10537,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10552,13 +10570,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10576,7 +10594,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10591,28 +10609,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10631,17 +10649,15 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10690,7 +10706,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10705,32 +10721,32 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
@@ -10745,16 +10761,16 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>162</v>
+        <v>509</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10780,13 +10796,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>518</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10804,7 +10820,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10819,35 +10835,35 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10859,16 +10875,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>526</v>
+        <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10894,13 +10910,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10918,13 +10934,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10933,28 +10949,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10964,7 +10980,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -10973,15 +10989,17 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11006,13 +11024,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11030,7 +11048,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11045,16 +11063,16 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11062,7 +11080,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11085,13 +11103,13 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11118,13 +11136,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11142,7 +11160,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11163,18 +11181,18 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11188,7 +11206,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11197,17 +11215,15 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>162</v>
+        <v>545</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M79" t="s" s="2">
         <v>546</v>
       </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11232,13 +11248,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11256,7 +11272,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11271,24 +11287,24 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>550</v>
+        <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11296,13 +11312,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11311,16 +11327,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>554</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11346,13 +11362,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11370,7 +11386,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11385,16 +11401,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11402,7 +11418,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11422,18 +11438,20 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="K81" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11482,7 +11500,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11497,28 +11515,28 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AK81" t="s" s="2">
+      <c r="AM81" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11528,7 +11546,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11537,17 +11555,15 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11596,7 +11612,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11611,13 +11627,13 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11626,13 +11642,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11642,25 +11658,25 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11710,7 +11726,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11725,28 +11741,28 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>585</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11756,7 +11772,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11765,20 +11781,18 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>162</v>
+        <v>583</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>589</v>
-      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
       </c>
@@ -11802,13 +11816,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>590</v>
+        <v>79</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>591</v>
+        <v>79</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -11826,7 +11840,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11844,25 +11858,25 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>593</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11872,25 +11886,29 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>595</v>
+        <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>48</v>
+        <v>591</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11914,13 +11932,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>595</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11938,7 +11956,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11953,24 +11971,24 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="AK85" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AL85" t="s" s="2">
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="AM85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN85" t="s" s="2">
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
         <v>599</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11981,25 +11999,25 @@
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>89</v>
+        <v>600</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12050,13 +12068,13 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
@@ -12065,10 +12083,10 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>603</v>
@@ -12077,12 +12095,12 @@
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12093,19 +12111,19 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>605</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>606</v>
@@ -12113,9 +12131,7 @@
       <c r="L87" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="M87" t="s" s="2">
-        <v>608</v>
-      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12164,13 +12180,13 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
@@ -12179,23 +12195,137 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="AK87" t="s" s="2">
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL87" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN87" t="s" s="2">
+      <c r="AL88" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN87">
+  <autoFilter ref="A1:AN88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12205,7 +12335,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="615">
   <si>
     <t>Property</t>
   </si>
@@ -426,7 +426,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -585,17 +585,14 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {resource-effectivePeriod}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
     <t>Validity period of the prescription</t>
   </si>
   <si>
-    <t>The period during which the resource content was or is planned to be effective.</t>
-  </si>
-  <si>
-    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+    <t>Begin and enddate of the validity of the request</t>
   </si>
   <si>
     <t>executed</t>
@@ -4273,9 +4270,7 @@
       <c r="L18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4359,17 +4354,17 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -4381,13 +4376,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4473,7 +4468,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4495,10 +4490,10 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>135</v>
@@ -4584,7 +4579,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4662,7 +4657,7 @@
         <v>137</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4694,10 +4689,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4719,10 +4714,10 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>135</v>
@@ -4776,7 +4771,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4808,10 +4803,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -4833,10 +4828,10 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>135</v>
@@ -4890,7 +4885,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4922,7 +4917,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4945,16 +4940,16 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4992,7 +4987,7 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
@@ -5002,7 +4997,7 @@
         <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5017,27 +5012,27 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
@@ -5059,16 +5054,16 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5118,7 +5113,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5133,24 +5128,24 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5262,11 +5257,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5288,13 +5283,13 @@
         <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5376,7 +5371,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5402,16 +5397,16 @@
         <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5436,31 +5431,31 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5481,7 +5476,7 @@
         <v>130</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5492,7 +5487,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5518,16 +5513,16 @@
         <v>163</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5555,28 +5550,28 @@
         <v>172</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5594,10 +5589,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5608,7 +5603,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5634,65 +5629,65 @@
         <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="R30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S30" t="s" s="2">
+      <c r="T30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5710,10 +5705,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5724,7 +5719,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5750,13 +5745,13 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5770,43 +5765,43 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5824,10 +5819,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5838,7 +5833,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5861,13 +5856,13 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5918,7 +5913,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5936,10 +5931,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5950,7 +5945,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5973,16 +5968,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6032,7 +6027,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6050,10 +6045,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6064,7 +6059,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6087,16 +6082,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6146,7 +6141,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6161,13 +6156,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6178,7 +6173,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6204,13 +6199,13 @@
         <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6260,7 +6255,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6275,13 +6270,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6292,11 +6287,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6315,13 +6310,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6372,7 +6367,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6387,13 +6382,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6404,11 +6399,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6427,13 +6422,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6484,7 +6479,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6499,13 +6494,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6516,11 +6511,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6539,19 +6534,19 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6600,7 +6595,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6615,13 +6610,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6632,7 +6627,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6658,13 +6653,13 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6690,14 +6685,14 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6714,7 +6709,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>87</v>
@@ -6729,24 +6724,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6772,13 +6767,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6804,14 +6799,14 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6828,7 +6823,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>87</v>
@@ -6843,16 +6838,16 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6860,7 +6855,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6886,16 +6881,16 @@
         <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6924,7 +6919,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6942,7 +6937,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6960,13 +6955,13 @@
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6974,7 +6969,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7086,11 +7081,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7112,13 +7107,13 @@
         <v>133</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7200,7 +7195,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7223,19 +7218,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7284,7 +7279,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7302,10 +7297,10 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7316,7 +7311,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7428,11 +7423,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7454,13 +7449,13 @@
         <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7542,7 +7537,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7568,65 +7563,65 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7644,10 +7639,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7658,7 +7653,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7684,13 +7679,13 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7740,7 +7735,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7758,10 +7753,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7772,7 +7767,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7798,63 +7793,63 @@
         <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7872,10 +7867,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7886,7 +7881,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7912,14 +7907,14 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7968,7 +7963,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7986,10 +7981,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8000,7 +7995,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8023,19 +8018,19 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8084,7 +8079,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8102,10 +8097,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8116,7 +8111,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8142,16 +8137,16 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8200,7 +8195,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8218,10 +8213,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8232,7 +8227,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8258,10 +8253,10 @@
         <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8269,35 +8264,35 @@
         <v>79</v>
       </c>
       <c r="P53" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Q53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="X53" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Q53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="X53" t="s" s="2">
+      <c r="Y53" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8314,7 +8309,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8329,16 +8324,16 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8346,7 +8341,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8369,26 +8364,26 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P54" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8432,7 +8427,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8447,13 +8442,13 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8464,11 +8459,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8490,13 +8485,13 @@
         <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8525,11 +8520,11 @@
         <v>166</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8546,7 +8541,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8561,28 +8556,28 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8604,13 +8599,13 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8639,16 +8634,16 @@
         <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
@@ -8658,7 +8653,7 @@
         <v>137</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8667,7 +8662,7 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8676,27 +8671,27 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8718,13 +8713,13 @@
         <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8753,11 +8748,11 @@
         <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8774,7 +8769,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8783,7 +8778,7 @@
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
@@ -8792,21 +8787,21 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8918,11 +8913,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8944,13 +8939,13 @@
         <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9032,7 +9027,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9055,19 +9050,19 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9092,14 +9087,14 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9116,7 +9111,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9134,10 +9129,10 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9148,7 +9143,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9260,11 +9255,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9286,13 +9281,13 @@
         <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9374,7 +9369,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9400,23 +9395,23 @@
         <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>79</v>
@@ -9458,7 +9453,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9476,10 +9471,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9490,7 +9485,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9516,13 +9511,13 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9572,7 +9567,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9590,10 +9585,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9604,7 +9599,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9630,14 +9625,14 @@
         <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9686,7 +9681,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9704,10 +9699,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9718,7 +9713,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9744,14 +9739,14 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9800,7 +9795,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9818,10 +9813,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9832,7 +9827,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9855,19 +9850,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9916,7 +9911,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9934,10 +9929,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9948,7 +9943,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9974,16 +9969,16 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10032,7 +10027,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10050,10 +10045,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10064,7 +10059,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10087,17 +10082,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10146,7 +10141,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10164,10 +10159,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10178,7 +10173,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10201,13 +10196,13 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10258,7 +10253,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>87</v>
@@ -10273,28 +10268,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10313,13 +10308,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10370,7 +10365,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10385,28 +10380,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>478</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10425,13 +10420,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10482,7 +10477,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10497,24 +10492,24 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10537,13 +10532,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10573,11 +10568,11 @@
         <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>494</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10594,7 +10589,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10615,22 +10610,22 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>496</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10649,13 +10644,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10706,7 +10701,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10721,28 +10716,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>506</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10761,16 +10756,16 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10820,7 +10815,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10835,28 +10830,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AK75" t="s" s="2">
+      <c r="AL75" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10878,13 +10873,13 @@
         <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10913,11 +10908,11 @@
         <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>524</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10934,7 +10929,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10949,16 +10944,16 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AL76" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10966,11 +10961,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10989,16 +10984,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11048,7 +11043,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11063,16 +11058,16 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AL77" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="AM77" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11080,7 +11075,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11106,10 +11101,10 @@
         <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11139,11 +11134,11 @@
         <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11160,7 +11155,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11181,10 +11176,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11192,7 +11187,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11215,13 +11210,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11272,7 +11267,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11293,10 +11288,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11304,7 +11299,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11330,13 +11325,13 @@
         <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11365,11 +11360,11 @@
         <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Y80" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11386,7 +11381,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11401,16 +11396,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AL80" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AM80" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11418,7 +11413,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11441,16 +11436,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11500,7 +11495,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11515,16 +11510,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AK81" t="s" s="2">
+      <c r="AL81" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="AL81" t="s" s="2">
-        <v>565</v>
-      </c>
       <c r="AM81" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11532,7 +11527,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11555,13 +11550,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11612,7 +11607,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11627,13 +11622,13 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AK82" t="s" s="2">
+      <c r="AL82" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11644,11 +11639,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11667,16 +11662,16 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11726,7 +11721,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11741,13 +11736,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="AK83" t="s" s="2">
+      <c r="AL83" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11758,7 +11753,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11781,16 +11776,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11840,7 +11835,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11858,10 +11853,10 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11872,11 +11867,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11898,16 +11893,16 @@
         <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11935,11 +11930,11 @@
         <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11956,7 +11951,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11974,21 +11969,21 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>598</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12011,13 +12006,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12068,7 +12063,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12083,24 +12078,24 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AK86" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>604</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12126,10 +12121,10 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12180,7 +12175,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12198,10 +12193,10 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12212,7 +12207,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12235,16 +12230,16 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12294,7 +12289,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12309,13 +12304,13 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -6285,7 +6285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>283</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="614">
   <si>
     <t>Property</t>
   </si>
@@ -991,10 +991,7 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -6687,11 +6684,9 @@
       <c r="W39" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="X39" t="s" s="2">
+      <c r="X39" s="2"/>
+      <c r="Y39" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6724,24 +6719,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6767,13 +6762,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6802,11 +6797,11 @@
         <v>224</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6823,7 +6818,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>87</v>
@@ -6838,16 +6833,16 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6855,7 +6850,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6881,16 +6876,16 @@
         <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6919,7 +6914,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6937,7 +6932,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6955,13 +6950,13 @@
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6969,7 +6964,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7081,7 +7076,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7195,7 +7190,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7218,19 +7213,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7279,7 +7274,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7297,10 +7292,10 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7311,7 +7306,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7423,7 +7418,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7537,7 +7532,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7563,65 +7558,65 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7639,10 +7634,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7653,7 +7648,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7679,13 +7674,13 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7735,7 +7730,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7753,10 +7748,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7767,7 +7762,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7793,63 +7788,63 @@
         <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7867,10 +7862,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7881,7 +7876,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7907,14 +7902,14 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7963,7 +7958,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7981,10 +7976,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7995,7 +7990,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8018,19 +8013,19 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8079,7 +8074,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8097,10 +8092,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8111,7 +8106,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8137,16 +8132,16 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8195,7 +8190,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8213,10 +8208,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8227,7 +8222,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8253,10 +8248,10 @@
         <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8264,7 +8259,7 @@
         <v>79</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q53" t="s" s="2">
         <v>79</v>
@@ -8288,11 +8283,11 @@
         <v>224</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8309,7 +8304,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8324,16 +8319,16 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8341,7 +8336,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8364,26 +8359,26 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P54" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8427,7 +8422,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8442,13 +8437,13 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8459,11 +8454,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8485,13 +8480,13 @@
         <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8520,11 +8515,11 @@
         <v>166</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8541,7 +8536,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8556,28 +8551,28 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8599,13 +8594,13 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8634,16 +8629,16 @@
         <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
@@ -8653,7 +8648,7 @@
         <v>137</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8662,7 +8657,7 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8671,27 +8666,27 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8713,13 +8708,13 @@
         <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8748,11 +8743,11 @@
         <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8769,7 +8764,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8778,7 +8773,7 @@
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
@@ -8787,21 +8782,21 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8913,7 +8908,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9027,7 +9022,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9050,19 +9045,19 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9090,11 +9085,11 @@
         <v>224</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9111,7 +9106,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9129,10 +9124,10 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9143,7 +9138,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9255,7 +9250,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9369,7 +9364,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9395,23 +9390,23 @@
         <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>79</v>
@@ -9453,7 +9448,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9471,10 +9466,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9485,7 +9480,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9511,13 +9506,13 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9567,7 +9562,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9585,10 +9580,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9599,7 +9594,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9625,14 +9620,14 @@
         <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9681,7 +9676,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9699,10 +9694,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9713,7 +9708,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9739,14 +9734,14 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9795,7 +9790,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9813,10 +9808,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9827,7 +9822,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9850,19 +9845,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9911,7 +9906,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9929,10 +9924,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9943,7 +9938,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9969,16 +9964,16 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10027,7 +10022,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10045,10 +10040,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10059,7 +10054,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10082,17 +10077,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10141,7 +10136,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10159,10 +10154,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10173,7 +10168,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10196,13 +10191,13 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10253,7 +10248,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>87</v>
@@ -10268,28 +10263,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10308,13 +10303,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10365,7 +10360,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10380,28 +10375,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>477</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10420,13 +10415,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10477,7 +10472,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10492,24 +10487,24 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>487</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10532,13 +10527,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10568,11 +10563,11 @@
         <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10589,7 +10584,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10610,22 +10605,22 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>495</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10644,13 +10639,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10701,7 +10696,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10716,28 +10711,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>505</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10756,16 +10751,16 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10815,7 +10810,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10830,28 +10825,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AK75" t="s" s="2">
+      <c r="AL75" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>516</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10873,13 +10868,13 @@
         <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10908,11 +10903,11 @@
         <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10929,7 +10924,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10944,16 +10939,16 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AL76" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10961,11 +10956,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10984,16 +10979,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11043,7 +11038,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11058,16 +11053,16 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AL77" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="AM77" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11075,7 +11070,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11101,10 +11096,10 @@
         <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11134,11 +11129,11 @@
         <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11155,7 +11150,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11176,10 +11171,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11187,7 +11182,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11210,13 +11205,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11267,7 +11262,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11288,10 +11283,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11299,7 +11294,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11325,13 +11320,13 @@
         <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11360,11 +11355,11 @@
         <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="Y80" t="s" s="2">
-        <v>552</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11381,7 +11376,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11396,16 +11391,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AL80" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AM80" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11413,7 +11408,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11436,16 +11431,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11495,7 +11490,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11510,16 +11505,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AK81" t="s" s="2">
+      <c r="AL81" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AL81" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="AM81" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11527,7 +11522,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11550,13 +11545,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11607,7 +11602,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11622,13 +11617,13 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="AK82" t="s" s="2">
+      <c r="AL82" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11639,11 +11634,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11662,16 +11657,16 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11721,7 +11716,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11736,13 +11731,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AK83" t="s" s="2">
+      <c r="AL83" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11753,7 +11748,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11776,16 +11771,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11835,7 +11830,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11853,10 +11848,10 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11867,11 +11862,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11893,16 +11888,16 @@
         <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11930,11 +11925,11 @@
         <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>595</v>
-      </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11951,7 +11946,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11969,21 +11964,21 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>597</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12006,13 +12001,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12063,7 +12058,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12078,24 +12073,24 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="AK86" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>603</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12121,10 +12116,10 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12175,7 +12170,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12193,10 +12188,10 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12207,7 +12202,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12230,16 +12225,16 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12289,7 +12284,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12304,13 +12299,13 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="618">
   <si>
     <t>Property</t>
   </si>
@@ -606,6 +606,19 @@
   </si>
   <si>
     <t>Begin and enddate of the execution of the request</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+</t>
+  </si>
+  <si>
+    <t>BeLastestEndDate</t>
+  </si>
+  <si>
+    <t>Request must be performed before</t>
   </si>
   <si>
     <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
@@ -2251,7 +2264,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4475,7 +4488,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -4493,7 +4506,7 @@
         <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4553,7 +4566,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>139</v>
@@ -4574,11 +4587,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4590,19 +4605,19 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>135</v>
@@ -4644,17 +4659,19 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4684,25 +4701,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>88</v>
@@ -4711,10 +4726,10 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>135</v>
@@ -4756,19 +4771,17 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4777,7 +4790,7 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>139</v>
@@ -4800,20 +4813,20 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
@@ -4825,10 +4838,10 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>135</v>
@@ -4882,7 +4895,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4912,11 +4925,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4925,29 +4940,27 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4984,17 +4997,19 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5003,34 +5018,32 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5039,10 +5052,10 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -5051,16 +5064,16 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5098,19 +5111,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5125,26 +5136,28 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5162,18 +5175,20 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5222,50 +5237,50 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -5277,17 +5292,15 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5324,31 +5337,31 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
@@ -5368,30 +5381,30 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>220</v>
@@ -5402,9 +5415,7 @@
       <c r="M28" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5428,52 +5439,52 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5484,7 +5495,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5501,25 +5512,25 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5544,13 +5555,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5568,7 +5579,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5586,10 +5597,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5600,7 +5611,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5608,7 +5619,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
@@ -5623,32 +5634,32 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>79</v>
@@ -5660,13 +5671,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5684,7 +5695,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5702,10 +5713,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5716,7 +5727,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5739,30 +5750,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5798,7 +5811,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5816,10 +5829,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5830,7 +5843,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5838,7 +5851,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5853,15 +5866,17 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5874,7 +5889,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5910,7 +5925,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5928,10 +5943,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5942,7 +5957,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5965,17 +5980,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6024,7 +6037,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6042,10 +6055,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6056,7 +6069,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6067,7 +6080,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6079,16 +6092,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6138,13 +6151,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6153,13 +6166,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6170,7 +6183,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6193,16 +6206,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6252,7 +6265,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6267,13 +6280,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6282,13 +6295,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6298,7 +6311,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6307,15 +6320,17 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6364,7 +6379,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6379,13 +6394,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6394,13 +6409,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6410,7 +6425,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6419,13 +6434,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6476,7 +6491,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6491,13 +6506,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6506,23 +6521,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6531,20 +6546,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6592,13 +6603,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6607,13 +6618,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6624,15 +6635,15 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
@@ -6641,24 +6652,26 @@
         <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6682,11 +6695,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6704,10 +6719,10 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>87</v>
@@ -6719,24 +6734,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6750,7 +6765,7 @@
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>88</v>
@@ -6762,13 +6777,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6794,13 +6809,11 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6818,7 +6831,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>87</v>
@@ -6833,24 +6846,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6864,29 +6877,27 @@
         <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6910,11 +6921,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6932,13 +6945,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6947,24 +6960,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>333</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6972,31 +6985,35 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>149</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7020,13 +7037,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7044,31 +7059,31 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>151</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>152</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7076,18 +7091,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7099,17 +7114,15 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7146,31 +7159,31 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -7190,11 +7203,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7210,23 +7223,21 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7262,19 +7273,19 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>155</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7286,16 +7297,16 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>345</v>
+        <v>152</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7306,7 +7317,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7317,7 +7328,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7326,19 +7337,23 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>342</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7386,28 +7401,28 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7418,18 +7433,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7441,17 +7456,15 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7488,31 +7501,31 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7532,18 +7545,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7552,29 +7565,27 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>349</v>
+        <v>220</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>350</v>
+        <v>221</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>79</v>
@@ -7604,40 +7615,40 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7648,7 +7659,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7671,24 +7682,26 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7730,7 +7743,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7748,10 +7761,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7762,7 +7775,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7785,24 +7798,24 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7844,7 +7857,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7862,10 +7875,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7876,7 +7889,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7899,24 +7912,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7958,7 +7971,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7976,10 +7989,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7990,7 +8003,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8013,19 +8026,17 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>380</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8074,7 +8085,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8092,10 +8103,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8106,7 +8117,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8129,19 +8140,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>384</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8190,7 +8201,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8208,10 +8219,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8222,7 +8233,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8245,66 +8256,68 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="Q53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8319,16 +8332,16 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8336,7 +8349,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8353,31 +8366,27 @@
         <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>380</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
@@ -8398,13 +8407,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8422,7 +8431,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8437,28 +8446,28 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8468,31 +8477,35 @@
         <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>163</v>
+        <v>384</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8512,13 +8525,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8536,7 +8549,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8551,35 +8564,35 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>88</v>
@@ -8594,13 +8607,13 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8629,64 +8642,64 @@
         <v>166</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AB56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8708,13 +8721,13 @@
         <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8743,28 +8756,26 @@
         <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8773,7 +8784,7 @@
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
@@ -8782,52 +8793,56 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>441</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8852,13 +8867,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8876,50 +8891,50 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>151</v>
+        <v>430</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>152</v>
+        <v>427</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8931,17 +8946,15 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8978,31 +8991,31 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9022,11 +9035,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9042,23 +9055,21 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9082,31 +9093,31 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>343</v>
+        <v>155</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9118,16 +9129,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>345</v>
+        <v>152</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9138,7 +9149,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9149,7 +9160,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9158,19 +9169,23 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>342</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9194,13 +9209,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9218,28 +9233,28 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9250,18 +9265,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9273,17 +9288,15 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9320,31 +9333,31 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9364,18 +9377,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9384,29 +9397,27 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>349</v>
+        <v>220</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>350</v>
+        <v>221</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>79</v>
@@ -9436,40 +9447,40 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9480,7 +9491,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9488,7 +9499,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
@@ -9503,24 +9514,26 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9562,7 +9575,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9580,10 +9593,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9594,7 +9607,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9602,7 +9615,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>87</v>
@@ -9617,18 +9630,18 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9676,7 +9689,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9694,10 +9707,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9708,7 +9721,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9716,7 +9729,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>87</v>
@@ -9731,17 +9744,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9790,7 +9803,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9808,10 +9821,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9822,7 +9835,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9845,19 +9858,17 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>380</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9906,7 +9917,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9924,10 +9935,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9938,7 +9949,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9961,19 +9972,19 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>384</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10022,7 +10033,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10040,10 +10051,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10054,7 +10065,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10077,17 +10088,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>453</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="N69" t="s" s="2">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10136,7 +10149,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10154,10 +10167,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>457</v>
+        <v>399</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10166,9 +10179,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10176,13 +10189,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10191,16 +10204,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10248,10 +10263,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10263,38 +10278,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10303,13 +10318,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10360,10 +10375,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10375,28 +10390,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10406,7 +10421,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10415,13 +10430,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10472,7 +10487,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10487,28 +10502,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10518,7 +10533,7 @@
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10527,13 +10542,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10560,13 +10575,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10584,7 +10599,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10599,38 +10614,38 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10639,13 +10654,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10672,13 +10687,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10696,7 +10711,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10711,28 +10726,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10751,17 +10766,15 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10810,7 +10823,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10825,32 +10838,32 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>87</v>
@@ -10865,16 +10878,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>163</v>
+        <v>511</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10900,13 +10913,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10924,7 +10937,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10939,35 +10952,35 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
@@ -10979,16 +10992,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>529</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11014,13 +11027,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11038,13 +11051,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11053,28 +11066,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11084,7 +11097,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11093,15 +11106,17 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>163</v>
+        <v>533</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11126,13 +11141,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11150,7 +11165,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11165,16 +11180,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11182,7 +11197,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11205,13 +11220,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>543</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11238,13 +11253,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11262,7 +11277,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11286,13 +11301,13 @@
         <v>545</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>546</v>
       </c>
@@ -11302,13 +11317,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11317,17 +11332,15 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>547</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>549</v>
-      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11352,13 +11365,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>550</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11391,24 +11404,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11416,13 +11429,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11431,16 +11444,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>557</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11466,13 +11479,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11490,7 +11503,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11505,16 +11518,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11522,7 +11535,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11542,18 +11555,20 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11602,7 +11617,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11617,28 +11632,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11648,7 +11663,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11657,17 +11672,15 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11716,7 +11729,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11731,13 +11744,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11746,13 +11759,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11762,25 +11775,25 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11830,7 +11843,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11845,13 +11858,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>79</v>
+        <v>581</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11860,13 +11873,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11876,7 +11889,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11885,20 +11898,18 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>585</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11922,13 +11933,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>593</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>594</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11946,7 +11957,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11964,25 +11975,25 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>596</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11992,25 +12003,29 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>598</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>48</v>
+        <v>593</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12034,13 +12049,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12058,7 +12073,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12073,24 +12088,24 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AK86" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AL86" t="s" s="2">
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12101,25 +12116,25 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>602</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>604</v>
+        <v>48</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12170,13 +12185,13 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
@@ -12185,22 +12200,22 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="AM87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>607</v>
       </c>
@@ -12213,29 +12228,27 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>611</v>
-      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12290,7 +12303,7 @@
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -12299,23 +12312,137 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="AK88" t="s" s="2">
+      <c r="K89" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AL89" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN88">
+  <autoFilter ref="A1:AN89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12325,7 +12452,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -426,7 +426,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -608,17 +608,17 @@
     <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
-    <t>BeLastestEndDate</t>
-  </si>
-  <si>
-    <t>Request must be performed before</t>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
   </si>
   <si>
     <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>87</v>
@@ -10980,7 +10980,7 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
@@ -11094,7 +11094,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>88</v>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$90</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="622">
   <si>
     <t>Property</t>
   </si>
@@ -606,6 +606,19 @@
   </si>
   <si>
     <t>Begin and enddate of the execution of the request</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+</t>
+  </si>
+  <si>
+    <t>Request must be executed before</t>
+  </si>
+  <si>
+    <t>Request must be performed before</t>
   </si>
   <si>
     <t>performer</t>
@@ -2264,7 +2277,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN89"/>
+  <dimension ref="A1:AN90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4485,7 +4498,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>87</v>
@@ -4599,10 +4612,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
@@ -4620,7 +4633,7 @@
         <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4680,7 +4693,7 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>139</v>
@@ -4701,11 +4714,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4717,19 +4732,19 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>135</v>
@@ -4771,17 +4786,19 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4811,25 +4828,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>88</v>
@@ -4838,10 +4853,10 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>135</v>
@@ -4883,19 +4898,17 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4904,7 +4917,7 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>139</v>
@@ -4927,20 +4940,20 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -4952,10 +4965,10 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>135</v>
@@ -5009,7 +5022,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5039,11 +5052,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5052,29 +5067,27 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5111,17 +5124,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5130,34 +5145,32 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5166,10 +5179,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5178,16 +5191,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5225,19 +5238,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5252,26 +5263,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5289,18 +5302,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5349,50 +5364,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5404,17 +5419,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5451,31 +5464,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5495,30 +5508,30 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>224</v>
@@ -5529,9 +5542,7 @@
       <c r="M29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5555,52 +5566,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5611,7 +5622,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5628,25 +5639,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5671,13 +5682,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5695,7 +5706,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5713,10 +5724,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5727,7 +5738,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5735,7 +5746,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5750,32 +5761,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5787,13 +5798,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5811,7 +5822,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5829,10 +5840,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5843,7 +5854,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5866,30 +5877,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5925,7 +5938,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5943,10 +5956,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5957,7 +5970,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5965,7 +5978,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5980,15 +5993,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6001,7 +6016,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6037,7 +6052,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6055,10 +6070,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6069,7 +6084,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6092,17 +6107,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6151,7 +6164,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6169,10 +6182,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6183,7 +6196,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6194,7 +6207,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6206,16 +6219,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6265,13 +6278,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6280,13 +6293,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6297,7 +6310,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6320,16 +6333,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>280</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6379,7 +6392,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6394,13 +6407,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6409,13 +6422,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6425,7 +6438,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6434,15 +6447,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6491,7 +6506,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6506,13 +6521,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>293</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6521,13 +6536,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6537,7 +6552,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6546,13 +6561,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6603,7 +6618,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6618,13 +6633,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6633,23 +6648,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6658,20 +6673,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6719,13 +6730,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6734,13 +6745,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6751,15 +6762,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6768,24 +6779,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6809,11 +6822,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6831,10 +6846,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6846,24 +6861,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6877,7 +6892,7 @@
         <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>88</v>
@@ -6889,13 +6904,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6921,13 +6936,11 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6945,7 +6958,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6960,24 +6973,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>322</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6991,29 +7004,27 @@
         <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7037,11 +7048,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7059,13 +7072,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7074,24 +7087,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>337</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7099,31 +7112,35 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7147,13 +7164,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7171,31 +7186,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7203,18 +7218,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7226,17 +7241,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7273,31 +7286,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7317,11 +7330,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7337,23 +7350,21 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>342</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7389,19 +7400,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7413,16 +7424,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>349</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7433,7 +7444,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7444,7 +7455,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7453,19 +7464,23 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>346</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7513,28 +7528,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7545,18 +7560,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7568,17 +7583,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7615,31 +7628,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7659,18 +7672,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7679,29 +7692,27 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>353</v>
+        <v>224</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
+        <v>225</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7731,40 +7742,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7775,7 +7786,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7798,24 +7809,26 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7857,7 +7870,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7875,10 +7888,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7889,7 +7902,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7912,24 +7925,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7971,7 +7984,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7989,10 +8002,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8003,7 +8016,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8026,24 +8039,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8085,7 +8098,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8103,10 +8116,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8117,7 +8130,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8140,19 +8153,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>384</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8201,7 +8212,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8219,10 +8230,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8233,7 +8244,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8256,19 +8267,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>388</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8317,7 +8328,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8335,10 +8346,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8349,7 +8360,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8372,66 +8383,68 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Q54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8446,16 +8459,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8463,7 +8476,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8480,31 +8493,27 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>384</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8525,13 +8534,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8549,7 +8558,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8564,28 +8573,28 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8595,31 +8604,35 @@
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>388</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8639,13 +8652,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8663,7 +8676,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8678,35 +8691,35 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8721,13 +8734,13 @@
         <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8756,64 +8769,64 @@
         <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AB57" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8835,13 +8848,13 @@
         <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8870,28 +8883,26 @@
         <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8900,7 +8911,7 @@
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
@@ -8909,52 +8920,56 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>149</v>
+        <v>445</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8979,13 +8994,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9003,50 +9018,50 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>151</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>152</v>
+        <v>431</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9058,17 +9073,15 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9105,31 +9118,31 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9149,11 +9162,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9169,23 +9182,21 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>342</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9209,31 +9220,31 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>347</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9245,16 +9256,16 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>349</v>
+        <v>152</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9265,7 +9276,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9276,7 +9287,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9285,19 +9296,23 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>346</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9321,13 +9336,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9345,28 +9360,28 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9377,18 +9392,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9400,17 +9415,15 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9447,31 +9460,31 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9491,18 +9504,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9511,29 +9524,27 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>353</v>
+        <v>224</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>354</v>
+        <v>225</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9563,40 +9574,40 @@
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9607,7 +9618,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9615,7 +9626,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>87</v>
@@ -9630,24 +9641,26 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9689,7 +9702,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9707,10 +9720,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9721,7 +9734,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9729,7 +9742,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>87</v>
@@ -9744,18 +9757,18 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9803,7 +9816,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9821,10 +9834,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9835,7 +9848,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9843,7 +9856,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>87</v>
@@ -9858,17 +9871,17 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9917,7 +9930,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9935,10 +9948,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9949,7 +9962,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9972,19 +9985,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>384</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10033,7 +10044,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10051,10 +10062,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10065,7 +10076,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10088,19 +10099,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>388</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10149,7 +10160,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10167,10 +10178,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10181,7 +10192,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10204,17 +10215,19 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>457</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>458</v>
+        <v>397</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="N70" t="s" s="2">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10263,7 +10276,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10281,10 +10294,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>461</v>
+        <v>403</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10293,9 +10306,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10303,13 +10316,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10318,16 +10331,18 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10375,10 +10390,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10390,38 +10405,38 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10430,13 +10445,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10487,10 +10502,10 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>87</v>
@@ -10502,28 +10517,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10533,7 +10548,7 @@
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10542,13 +10557,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10599,7 +10614,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10614,28 +10629,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10645,7 +10660,7 @@
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10654,13 +10669,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10687,13 +10702,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10711,7 +10726,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10726,38 +10741,38 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10766,13 +10781,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10799,13 +10814,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10823,7 +10838,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10838,28 +10853,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10878,17 +10893,15 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10937,7 +10950,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10952,35 +10965,35 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
@@ -10992,16 +11005,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>163</v>
+        <v>515</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11027,13 +11040,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11051,7 +11064,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11066,28 +11079,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11106,16 +11119,16 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>533</v>
+        <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11141,13 +11154,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11165,13 +11178,13 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
@@ -11180,38 +11193,38 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11220,15 +11233,17 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>163</v>
+        <v>537</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11253,13 +11268,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11277,7 +11292,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11292,16 +11307,16 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11309,7 +11324,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11332,13 +11347,13 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>547</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11365,13 +11380,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11389,7 +11404,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11413,13 +11428,13 @@
         <v>549</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
         <v>550</v>
       </c>
@@ -11429,13 +11444,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11444,17 +11459,15 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>551</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>553</v>
-      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11479,13 +11492,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11518,24 +11531,24 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11543,13 +11556,13 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11558,16 +11571,16 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>561</v>
+        <v>163</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11593,13 +11606,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11617,7 +11630,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11632,16 +11645,16 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11649,7 +11662,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11669,18 +11682,20 @@
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11729,7 +11744,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11744,28 +11759,28 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>576</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11775,7 +11790,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11784,17 +11799,15 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11843,7 +11856,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11858,13 +11871,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11873,13 +11886,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11889,25 +11902,25 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11957,7 +11970,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11972,13 +11985,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -11987,13 +12000,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>592</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12003,7 +12016,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12012,20 +12025,18 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>163</v>
+        <v>589</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12049,13 +12060,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12073,7 +12084,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12091,25 +12102,25 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12119,25 +12130,29 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>602</v>
+        <v>163</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>48</v>
+        <v>597</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12161,13 +12176,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12185,7 +12200,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12200,24 +12215,24 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AK87" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AL87" t="s" s="2">
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12228,25 +12243,25 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>606</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>608</v>
+        <v>48</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12297,13 +12312,13 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -12312,22 +12327,22 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>79</v>
+        <v>608</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>611</v>
       </c>
@@ -12340,29 +12355,27 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L89" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>615</v>
-      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12417,7 +12430,7 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
@@ -12426,23 +12439,137 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J90" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="AK89" t="s" s="2">
+      <c r="K90" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL89" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
+      <c r="AL90" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN89">
+  <autoFilter ref="A1:AN90">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12452,7 +12579,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI89">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -6988,7 +6988,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>326</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>88</v>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="626">
   <si>
     <t>Property</t>
   </si>
@@ -632,6 +632,19 @@
   </si>
   <si>
     <t>Intended performers for this request</t>
+  </si>
+  <si>
+    <t>proposalType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-proposal-type}
+</t>
+  </si>
+  <si>
+    <t>BeProposalType</t>
+  </si>
+  <si>
+    <t>Type of proposal</t>
   </si>
   <si>
     <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
@@ -2277,7 +2290,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN90"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4729,7 +4742,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4747,7 +4760,7 @@
         <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4807,7 +4820,7 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>139</v>
@@ -4828,11 +4841,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4844,19 +4859,19 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>135</v>
@@ -4898,17 +4913,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4938,25 +4955,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>88</v>
@@ -4965,10 +4980,10 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>135</v>
@@ -5010,19 +5025,17 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5031,7 +5044,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5054,20 +5067,20 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -5079,10 +5092,10 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>135</v>
@@ -5136,7 +5149,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5166,11 +5179,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5179,29 +5194,27 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5238,17 +5251,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5257,34 +5272,32 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5293,10 +5306,10 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5305,16 +5318,16 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5352,19 +5365,17 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5379,26 +5390,28 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5416,18 +5429,20 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5476,50 +5491,50 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5531,17 +5546,15 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5578,31 +5591,31 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
@@ -5622,30 +5635,30 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>228</v>
@@ -5656,9 +5669,7 @@
       <c r="M30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>231</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5682,52 +5693,52 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5738,7 +5749,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5755,25 +5766,25 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5798,13 +5809,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5822,7 +5833,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5840,10 +5851,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5854,7 +5865,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5862,7 +5873,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5877,32 +5888,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5914,13 +5925,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5938,7 +5949,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5956,10 +5967,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5970,7 +5981,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5993,30 +6004,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6052,7 +6065,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6070,10 +6083,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6084,7 +6097,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6092,7 +6105,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6107,15 +6120,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6128,7 +6143,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6164,7 +6179,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6182,10 +6197,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6196,7 +6211,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6219,17 +6234,15 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6278,7 +6291,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6296,10 +6309,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6310,7 +6323,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6321,7 +6334,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6333,16 +6346,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6392,13 +6405,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6407,13 +6420,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6424,7 +6437,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6447,16 +6460,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6506,7 +6519,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6521,13 +6534,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6536,13 +6549,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6552,7 +6565,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6561,15 +6574,17 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6618,7 +6633,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6633,13 +6648,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>297</v>
+        <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6648,13 +6663,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6664,7 +6679,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6673,13 +6688,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6730,7 +6745,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6745,13 +6760,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6760,23 +6775,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6785,20 +6800,16 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6846,13 +6857,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6861,13 +6872,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6878,15 +6889,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
@@ -6895,24 +6906,26 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6936,11 +6949,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6958,10 +6973,10 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6973,24 +6988,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7016,13 +7031,13 @@
         <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7048,13 +7063,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7072,7 +7085,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>87</v>
@@ -7087,24 +7100,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7121,26 +7134,24 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7164,11 +7175,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7186,13 +7199,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7201,24 +7214,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>130</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7226,31 +7239,35 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7274,13 +7291,11 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7298,31 +7313,31 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>152</v>
+        <v>346</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7330,18 +7345,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7353,17 +7368,15 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7400,31 +7413,31 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7444,11 +7457,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7464,23 +7477,21 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>346</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7516,19 +7527,19 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>155</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7540,16 +7551,16 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>353</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7560,7 +7571,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7571,7 +7582,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7580,19 +7591,23 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7640,28 +7655,28 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7672,18 +7687,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7695,17 +7710,15 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7742,31 +7755,31 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7786,18 +7799,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7806,29 +7819,27 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>228</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>229</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7858,40 +7869,40 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>362</v>
+        <v>155</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7902,7 +7913,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7925,24 +7936,26 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7984,7 +7997,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8002,10 +8015,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8016,7 +8029,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8039,24 +8052,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8098,7 +8111,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8116,10 +8129,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8130,7 +8143,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8153,24 +8166,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8212,7 +8225,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8230,10 +8243,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8244,7 +8257,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8267,19 +8280,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>388</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8328,7 +8339,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8346,10 +8357,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8360,7 +8371,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8383,19 +8394,19 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8444,7 +8455,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8462,10 +8473,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8476,7 +8487,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8499,66 +8510,68 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="Q55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8573,16 +8586,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8590,7 +8603,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8607,31 +8620,27 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>388</v>
+        <v>107</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
@@ -8652,13 +8661,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8676,7 +8685,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8691,28 +8700,28 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8722,31 +8731,35 @@
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8766,13 +8779,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8790,7 +8803,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8805,35 +8818,35 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8848,13 +8861,13 @@
         <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8883,64 +8896,64 @@
         <v>166</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8962,13 +8975,13 @@
         <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8997,28 +9010,26 @@
         <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9027,7 +9038,7 @@
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>99</v>
@@ -9036,52 +9047,56 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9106,13 +9121,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9130,50 +9145,50 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>151</v>
+        <v>438</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9185,17 +9200,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9232,31 +9245,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9276,11 +9289,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9296,23 +9309,21 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>346</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9336,31 +9347,31 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>351</v>
+        <v>155</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9372,16 +9383,16 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>353</v>
+        <v>152</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9392,7 +9403,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9403,7 +9414,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9412,19 +9423,23 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9448,13 +9463,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9472,28 +9487,28 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9504,18 +9519,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9527,17 +9542,15 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9574,31 +9587,31 @@
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
@@ -9618,18 +9631,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9638,29 +9651,27 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>357</v>
+        <v>228</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>358</v>
+        <v>229</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9690,40 +9701,40 @@
         <v>79</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>362</v>
+        <v>155</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9734,7 +9745,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9742,7 +9753,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>87</v>
@@ -9757,24 +9768,26 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
@@ -9816,7 +9829,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9834,10 +9847,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9848,7 +9861,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9856,7 +9869,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>87</v>
@@ -9871,18 +9884,18 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9930,7 +9943,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9948,10 +9961,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9962,7 +9975,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9970,7 +9983,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
@@ -9985,17 +9998,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10044,7 +10057,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10062,10 +10075,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10076,7 +10089,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10099,19 +10112,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>388</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10160,7 +10171,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10178,10 +10189,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10192,7 +10203,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10215,19 +10226,19 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10276,7 +10287,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10294,10 +10305,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10308,7 +10319,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10331,17 +10342,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>461</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>462</v>
+        <v>401</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="N71" t="s" s="2">
-        <v>464</v>
+        <v>404</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10390,7 +10403,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>460</v>
+        <v>405</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10408,10 +10421,10 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>465</v>
+        <v>407</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10420,9 +10433,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10430,13 +10443,13 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10445,16 +10458,18 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10502,10 +10517,10 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>87</v>
@@ -10517,38 +10532,38 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10557,13 +10572,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10614,10 +10629,10 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>87</v>
@@ -10629,28 +10644,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10660,7 +10675,7 @@
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10669,13 +10684,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10726,7 +10741,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10741,28 +10756,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10772,7 +10787,7 @@
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10781,13 +10796,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10814,13 +10829,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10838,7 +10853,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10853,38 +10868,38 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10893,13 +10908,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10926,13 +10941,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10950,7 +10965,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10965,28 +10980,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11005,17 +11020,15 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11064,7 +11077,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11079,35 +11092,35 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>88</v>
@@ -11119,16 +11132,16 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>163</v>
+        <v>519</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11154,13 +11167,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11178,7 +11191,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11193,28 +11206,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11233,16 +11246,16 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>537</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11268,13 +11281,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11292,13 +11305,13 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -11307,38 +11320,38 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11347,15 +11360,17 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>541</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11380,13 +11395,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11404,7 +11419,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11419,16 +11434,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11436,7 +11451,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11459,13 +11474,13 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>551</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11492,13 +11507,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>551</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11516,7 +11531,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11540,13 +11555,13 @@
         <v>553</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
         <v>554</v>
       </c>
@@ -11556,13 +11571,13 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11571,17 +11586,15 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>163</v>
+        <v>555</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>557</v>
-      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11606,13 +11619,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11645,24 +11658,24 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11670,13 +11683,13 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11685,16 +11698,16 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>565</v>
+        <v>163</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11720,13 +11733,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
+        <v>562</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11744,7 +11757,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11759,16 +11772,16 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11776,7 +11789,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11796,18 +11809,20 @@
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11856,7 +11871,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11871,28 +11886,28 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11902,7 +11917,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11911,17 +11926,15 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11970,7 +11983,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11985,13 +11998,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12000,13 +12013,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>584</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12016,25 +12029,25 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12084,7 +12097,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12099,13 +12112,13 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>589</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12114,13 +12127,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>596</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12130,7 +12143,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12139,20 +12152,18 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>163</v>
+        <v>593</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12176,13 +12187,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12200,7 +12211,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12218,25 +12229,25 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12246,25 +12257,29 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>606</v>
+        <v>163</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>48</v>
+        <v>601</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12288,13 +12303,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
+        <v>605</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12312,7 +12327,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12327,24 +12342,24 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AK88" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AL88" t="s" s="2">
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12355,25 +12370,25 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>89</v>
+        <v>610</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>612</v>
+        <v>48</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12424,13 +12439,13 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
@@ -12439,22 +12454,22 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>79</v>
+        <v>612</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>615</v>
       </c>
@@ -12467,29 +12482,27 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>619</v>
-      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12544,7 +12557,7 @@
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
@@ -12553,23 +12566,137 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="AK90" t="s" s="2">
+      <c r="K91" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL90" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AL91" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN90">
+  <autoFilter ref="A1:AN91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12579,7 +12706,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI89">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -1027,7 +1027,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
@@ -1762,7 +1762,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1796,7 +1796,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="630">
   <si>
     <t>Property</t>
   </si>
@@ -647,6 +647,16 @@
     <t>Type of proposal</t>
   </si>
   <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-task-reference}
+</t>
+  </si>
+  <si>
+    <t>BeTaskReference</t>
+  </si>
+  <si>
     <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
   </si>
   <si>
@@ -1030,7 +1040,10 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -2290,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4856,7 +4869,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
@@ -4874,7 +4887,7 @@
         <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4934,7 +4947,7 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>139</v>
@@ -4955,11 +4968,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4971,19 +4986,19 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>135</v>
@@ -5025,17 +5040,19 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5065,25 +5082,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>88</v>
@@ -5092,10 +5107,10 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>135</v>
@@ -5137,19 +5152,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5158,7 +5171,7 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>139</v>
@@ -5181,7 +5194,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>209</v>
@@ -5191,10 +5204,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
@@ -5263,7 +5276,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5293,11 +5306,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5306,16 +5321,16 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>213</v>
@@ -5324,11 +5339,9 @@
         <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5365,17 +5378,19 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5384,34 +5399,32 @@
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5420,10 +5433,10 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5432,16 +5445,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5479,19 +5492,17 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5506,26 +5517,28 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5543,18 +5556,20 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5603,50 +5618,50 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5658,17 +5673,15 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5705,31 +5718,31 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5749,43 +5762,41 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5809,52 +5820,52 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5865,7 +5876,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5882,25 +5893,25 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5925,13 +5936,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5949,7 +5960,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5967,10 +5978,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5981,7 +5992,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5989,7 +6000,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -6004,32 +6015,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6041,13 +6052,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6065,7 +6076,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6083,10 +6094,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6097,7 +6108,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6120,30 +6131,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6179,7 +6192,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6197,10 +6210,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6211,7 +6224,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6219,7 +6232,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6234,15 +6247,17 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6255,7 +6270,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6291,7 +6306,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6309,10 +6324,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6323,7 +6338,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6346,17 +6361,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6405,7 +6418,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6423,10 +6436,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6437,7 +6450,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6448,7 +6461,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6460,16 +6473,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6525,7 +6538,7 @@
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6534,13 +6547,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6551,7 +6564,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6574,16 +6587,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6633,7 +6646,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6648,13 +6661,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6663,13 +6676,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6679,7 +6692,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6688,15 +6701,17 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6745,7 +6760,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6760,13 +6775,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6775,13 +6790,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6791,7 +6806,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6800,13 +6815,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6857,7 +6872,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6872,13 +6887,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6887,23 +6902,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6912,20 +6927,16 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6973,13 +6984,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6988,13 +6999,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7005,15 +7016,15 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -7022,24 +7033,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7063,11 +7076,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7085,10 +7100,10 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>87</v>
@@ -7100,24 +7115,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7143,13 +7158,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7175,13 +7190,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7199,7 +7214,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7214,24 +7229,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7248,26 +7263,24 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7291,11 +7304,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7313,13 +7328,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7328,24 +7343,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>345</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7353,31 +7368,35 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7401,13 +7420,11 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7425,31 +7442,31 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>151</v>
+        <v>343</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>350</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7457,18 +7474,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7480,17 +7497,15 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7527,31 +7542,31 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7571,11 +7586,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7591,23 +7606,21 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>350</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>351</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7643,19 +7656,19 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>355</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7667,16 +7680,16 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7687,7 +7700,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7698,7 +7711,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7707,19 +7720,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>354</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>355</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7767,28 +7784,28 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>151</v>
+        <v>359</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>361</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7799,18 +7816,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7822,17 +7839,15 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7869,31 +7884,31 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
@@ -7913,18 +7928,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7933,29 +7948,27 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>361</v>
+        <v>231</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>362</v>
+        <v>232</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7985,40 +7998,40 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>366</v>
+        <v>155</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>368</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8029,7 +8042,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8052,24 +8065,26 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8111,7 +8126,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8129,10 +8144,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8143,7 +8158,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8166,24 +8181,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8225,7 +8240,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8243,10 +8258,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8257,7 +8272,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8280,24 +8295,24 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8339,7 +8354,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8357,10 +8372,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8371,7 +8386,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8394,19 +8409,17 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8455,7 +8468,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8473,10 +8486,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8487,7 +8500,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8510,19 +8523,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>396</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8571,7 +8584,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8589,10 +8602,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8603,7 +8616,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8626,66 +8639,68 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8700,16 +8715,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8717,7 +8732,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8734,31 +8749,27 @@
         <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>392</v>
+        <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
@@ -8779,13 +8790,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8803,7 +8814,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8818,28 +8829,28 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8849,31 +8860,35 @@
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="Q58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8893,13 +8908,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8917,7 +8932,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8932,35 +8947,35 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>88</v>
@@ -8975,13 +8990,13 @@
         <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9010,64 +9025,64 @@
         <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AB59" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9089,13 +9104,13 @@
         <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9124,28 +9139,26 @@
         <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9154,7 +9167,7 @@
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
@@ -9163,52 +9176,56 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>149</v>
+        <v>453</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9233,13 +9250,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9257,50 +9274,50 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>151</v>
+        <v>442</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>152</v>
+        <v>439</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9312,17 +9329,15 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9359,31 +9374,31 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9403,11 +9418,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9423,23 +9438,21 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>350</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>351</v>
+        <v>231</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9463,31 +9476,31 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>355</v>
+        <v>155</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9499,16 +9512,16 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9519,7 +9532,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9530,7 +9543,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9539,19 +9552,23 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>354</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>149</v>
+        <v>355</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9575,13 +9592,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9599,28 +9616,28 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>151</v>
+        <v>359</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>152</v>
+        <v>361</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9631,18 +9648,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9654,17 +9671,15 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9701,31 +9716,31 @@
         <v>79</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
@@ -9745,18 +9760,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9765,29 +9780,27 @@
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>361</v>
+        <v>231</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>362</v>
+        <v>232</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
@@ -9817,40 +9830,40 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>366</v>
+        <v>155</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>368</v>
+        <v>152</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9861,7 +9874,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9869,7 +9882,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>87</v>
@@ -9884,24 +9897,26 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9943,7 +9958,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9961,10 +9976,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9975,7 +9990,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9983,7 +9998,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
@@ -9998,18 +10013,18 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10057,7 +10072,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10075,10 +10090,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10089,7 +10104,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10097,7 +10112,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>87</v>
@@ -10112,17 +10127,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10171,7 +10186,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10189,10 +10204,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10203,7 +10218,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10226,19 +10241,17 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10287,7 +10300,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10305,10 +10318,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10319,7 +10332,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10342,19 +10355,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>396</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10403,7 +10416,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10421,10 +10434,10 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10435,7 +10448,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10458,17 +10471,19 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>465</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>466</v>
+        <v>405</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="N72" t="s" s="2">
-        <v>468</v>
+        <v>408</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10517,7 +10532,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>464</v>
+        <v>409</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10535,10 +10550,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>469</v>
+        <v>411</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10547,9 +10562,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10557,13 +10572,13 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10572,16 +10587,18 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10629,10 +10646,10 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>87</v>
@@ -10644,38 +10661,38 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10684,13 +10701,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10741,10 +10758,10 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>87</v>
@@ -10756,28 +10773,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10787,7 +10804,7 @@
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10796,13 +10813,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10853,7 +10870,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10868,28 +10885,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10899,7 +10916,7 @@
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10908,13 +10925,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10941,13 +10958,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10965,7 +10982,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10980,38 +10997,38 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11020,13 +11037,13 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11053,13 +11070,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11077,7 +11094,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11092,28 +11109,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11132,17 +11149,15 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11191,7 +11206,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11206,35 +11221,35 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>88</v>
@@ -11246,16 +11261,16 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>163</v>
+        <v>523</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11281,13 +11296,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11305,7 +11320,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11320,28 +11335,28 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11360,16 +11375,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>541</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11395,13 +11410,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11419,13 +11434,13 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
@@ -11434,38 +11449,38 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11474,15 +11489,17 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>545</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>547</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11507,13 +11524,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11531,7 +11548,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11546,16 +11563,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11563,7 +11580,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11586,13 +11603,13 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>555</v>
+        <v>163</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11619,13 +11636,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11643,7 +11660,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11667,13 +11684,13 @@
         <v>557</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
         <v>558</v>
       </c>
@@ -11683,13 +11700,13 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11698,17 +11715,15 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>163</v>
+        <v>559</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>561</v>
-      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11733,13 +11748,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>563</v>
+        <v>79</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11772,24 +11787,24 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>564</v>
+        <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>565</v>
+        <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11797,13 +11812,13 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11812,16 +11827,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>569</v>
+        <v>163</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11847,13 +11862,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -11871,7 +11886,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11886,16 +11901,16 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -11903,7 +11918,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11923,18 +11938,20 @@
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11983,7 +12000,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11998,28 +12015,28 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>584</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12029,7 +12046,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12038,17 +12055,15 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>588</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12097,7 +12112,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12112,13 +12127,13 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12127,13 +12142,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12143,25 +12158,25 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12211,7 +12226,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12226,13 +12241,13 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12241,13 +12256,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12257,7 +12272,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12266,20 +12281,18 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>163</v>
+        <v>597</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>604</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12303,13 +12316,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>606</v>
+        <v>79</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12327,7 +12340,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12345,25 +12358,25 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>608</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12373,25 +12386,29 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>610</v>
+        <v>163</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>48</v>
+        <v>605</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12415,13 +12432,13 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>79</v>
+        <v>609</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12439,7 +12456,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12454,24 +12471,24 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="AK89" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AL89" t="s" s="2">
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12482,25 +12499,25 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>89</v>
+        <v>614</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>616</v>
+        <v>48</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12551,13 +12568,13 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
@@ -12566,22 +12583,22 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>79</v>
+        <v>616</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>619</v>
       </c>
@@ -12594,29 +12611,27 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>623</v>
-      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12671,7 +12686,7 @@
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12680,23 +12695,137 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J92" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="AK91" t="s" s="2">
+      <c r="K92" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL91" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AL92" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN91">
+  <autoFilter ref="A1:AN92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12706,7 +12835,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="633">
   <si>
     <t>Property</t>
   </si>
@@ -655,6 +655,16 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>extends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-extends}
+</t>
+  </si>
+  <si>
+    <t>BeExtends</t>
   </si>
   <si>
     <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
@@ -2303,7 +2313,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4983,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -5001,7 +5011,7 @@
         <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5061,7 +5071,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5082,11 +5092,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5098,19 +5110,19 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>135</v>
@@ -5152,17 +5164,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5192,25 +5206,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>88</v>
@@ -5219,10 +5231,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5264,19 +5276,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5285,7 +5295,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>139</v>
@@ -5308,7 +5318,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>212</v>
@@ -5318,10 +5328,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -5390,7 +5400,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5420,11 +5430,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5433,16 +5445,16 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>216</v>
@@ -5451,11 +5463,9 @@
         <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5492,17 +5502,19 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5511,34 +5523,32 @@
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5547,10 +5557,10 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5559,16 +5569,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5606,19 +5616,17 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5633,26 +5641,28 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5670,18 +5680,20 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5730,50 +5742,50 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5785,17 +5797,15 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5832,31 +5842,31 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
@@ -5876,43 +5886,41 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5936,52 +5944,52 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5992,7 +6000,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6009,25 +6017,25 @@
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6052,13 +6060,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6076,7 +6084,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6094,10 +6102,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6108,7 +6116,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6116,7 +6124,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6131,32 +6139,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6168,13 +6176,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6192,7 +6200,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6210,10 +6218,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6224,7 +6232,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6247,30 +6255,32 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6306,7 +6316,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6324,10 +6334,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6338,7 +6348,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6346,7 +6356,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6361,15 +6371,17 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6382,7 +6394,7 @@
         <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>79</v>
@@ -6418,7 +6430,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6436,10 +6448,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6450,7 +6462,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6473,17 +6485,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6532,7 +6542,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6550,10 +6560,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6564,7 +6574,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6575,7 +6585,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6587,16 +6597,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6652,7 +6662,7 @@
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6661,13 +6671,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6678,7 +6688,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6701,16 +6711,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>290</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6760,7 +6770,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6775,13 +6785,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6790,13 +6800,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6806,7 +6816,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6815,15 +6825,17 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6872,7 +6884,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6887,13 +6899,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>146</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6902,13 +6914,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6918,7 +6930,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6927,13 +6939,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6984,7 +6996,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6999,13 +7011,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7014,23 +7026,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7039,20 +7051,16 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>216</v>
+        <v>311</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7100,13 +7108,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7115,13 +7123,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7132,15 +7140,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
@@ -7149,24 +7157,26 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7190,13 +7200,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7214,10 +7224,10 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
@@ -7229,24 +7239,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7272,13 +7282,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7304,13 +7314,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7328,7 +7338,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7343,24 +7353,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7377,26 +7387,24 @@
         <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7420,11 +7428,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7442,13 +7452,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7457,24 +7467,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>349</v>
+        <v>130</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7482,31 +7492,35 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7530,13 +7544,11 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7554,31 +7566,31 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>346</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7586,18 +7598,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7609,17 +7621,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7656,31 +7666,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7700,11 +7710,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7720,23 +7730,21 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>355</v>
+        <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>356</v>
+        <v>235</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7772,19 +7780,19 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7796,16 +7804,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>361</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7816,7 +7824,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7827,7 +7835,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7836,19 +7844,23 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>358</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7896,28 +7908,28 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7928,18 +7940,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7951,17 +7963,15 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7998,31 +8008,31 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -8042,18 +8052,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8062,29 +8072,27 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>365</v>
+        <v>234</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>366</v>
+        <v>235</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8114,40 +8122,40 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>370</v>
+        <v>155</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>152</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8158,7 +8166,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8181,24 +8189,26 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8240,7 +8250,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8258,10 +8268,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8272,7 +8282,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8295,24 +8305,24 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8354,7 +8364,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8372,10 +8382,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8386,7 +8396,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8409,24 +8419,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>79</v>
@@ -8468,7 +8478,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8486,10 +8496,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8500,7 +8510,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8523,19 +8533,17 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>396</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8584,7 +8592,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8602,10 +8610,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8616,7 +8624,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8639,19 +8647,19 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8700,7 +8708,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8718,10 +8726,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8732,7 +8740,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8755,22 +8763,24 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8790,13 +8800,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8829,16 +8839,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8846,7 +8856,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8863,31 +8873,27 @@
         <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>396</v>
+        <v>107</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>79</v>
@@ -8908,13 +8914,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8932,7 +8938,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8947,28 +8953,28 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8978,31 +8984,35 @@
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>163</v>
+        <v>399</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="Q59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9022,13 +9032,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9046,7 +9056,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9061,35 +9071,35 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -9104,13 +9114,13 @@
         <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9139,64 +9149,64 @@
         <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9218,13 +9228,13 @@
         <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9253,28 +9263,26 @@
         <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9283,7 +9291,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
@@ -9292,52 +9300,56 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>456</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9362,13 +9374,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9386,50 +9398,50 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>151</v>
+        <v>445</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>442</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9441,17 +9453,15 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9488,31 +9498,31 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9532,11 +9542,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9552,23 +9562,21 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>355</v>
+        <v>234</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>356</v>
+        <v>235</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9592,31 +9600,31 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>359</v>
+        <v>155</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9628,16 +9636,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>361</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9659,7 +9667,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9668,19 +9676,23 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>149</v>
+        <v>358</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9704,13 +9716,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9728,28 +9740,28 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9760,18 +9772,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9783,17 +9795,15 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9830,31 +9840,31 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -9874,18 +9884,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9894,29 +9904,27 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>365</v>
+        <v>234</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>366</v>
+        <v>235</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9946,40 +9954,40 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>370</v>
+        <v>155</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>372</v>
+        <v>152</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9990,7 +9998,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9998,7 +10006,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
@@ -10013,24 +10021,26 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>79</v>
@@ -10072,7 +10082,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10090,10 +10100,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10104,7 +10114,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10112,7 +10122,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>87</v>
@@ -10127,18 +10137,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10186,7 +10196,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10204,10 +10214,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10218,7 +10228,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10226,7 +10236,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
@@ -10241,17 +10251,17 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10300,7 +10310,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10318,10 +10328,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10332,7 +10342,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10355,19 +10365,17 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>396</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10416,7 +10424,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10434,10 +10442,10 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10448,7 +10456,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10471,19 +10479,19 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10532,7 +10540,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10550,10 +10558,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10564,7 +10572,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10587,17 +10595,19 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>469</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>470</v>
+        <v>408</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>472</v>
+        <v>411</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10646,7 +10656,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10664,10 +10674,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>473</v>
+        <v>414</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10676,9 +10686,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10686,13 +10696,13 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10701,16 +10711,18 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K74" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10758,10 +10770,10 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>87</v>
@@ -10773,38 +10785,38 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10813,13 +10825,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10870,10 +10882,10 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>87</v>
@@ -10885,28 +10897,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10916,7 +10928,7 @@
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10925,13 +10937,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10982,7 +10994,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10997,28 +11009,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11028,7 +11040,7 @@
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11037,13 +11049,13 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11070,13 +11082,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11094,7 +11106,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11109,38 +11121,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11149,13 +11161,13 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11182,13 +11194,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11206,7 +11218,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11221,28 +11233,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11261,17 +11273,15 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11320,7 +11330,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11335,35 +11345,35 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>
@@ -11375,16 +11385,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>526</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11410,13 +11420,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11434,7 +11444,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11449,28 +11459,28 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11489,16 +11499,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>545</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11524,13 +11534,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11548,13 +11558,13 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
@@ -11563,38 +11573,38 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11603,15 +11613,17 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>163</v>
+        <v>548</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11636,13 +11648,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11660,7 +11672,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11675,16 +11687,16 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11692,7 +11704,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11715,13 +11727,13 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>559</v>
+        <v>163</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11748,13 +11760,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11772,7 +11784,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11793,18 +11805,18 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11812,13 +11824,13 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11827,17 +11839,15 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>163</v>
+        <v>562</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>565</v>
-      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11862,13 +11872,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -11886,7 +11896,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11901,24 +11911,24 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11926,13 +11936,13 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11941,16 +11951,16 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>573</v>
+        <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11976,13 +11986,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>570</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12000,7 +12010,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12015,16 +12025,16 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12032,7 +12042,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12052,18 +12062,20 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12112,7 +12124,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12127,28 +12139,28 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12158,7 +12170,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12167,17 +12179,15 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12226,7 +12236,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12241,13 +12251,13 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12256,13 +12266,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12272,25 +12282,25 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12340,7 +12350,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12355,13 +12365,13 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12370,13 +12380,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12386,7 +12396,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12395,20 +12405,18 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>163</v>
+        <v>600</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12432,13 +12440,13 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>609</v>
+        <v>79</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>610</v>
+        <v>79</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12456,7 +12464,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12474,25 +12482,25 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>612</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12502,25 +12510,29 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>614</v>
+        <v>163</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>48</v>
+        <v>608</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>611</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12544,13 +12556,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>79</v>
+        <v>612</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>79</v>
+        <v>613</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12568,7 +12580,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12583,24 +12595,24 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12611,25 +12623,25 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>617</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>620</v>
+        <v>48</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12680,13 +12692,13 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12695,24 +12707,24 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>79</v>
+        <v>619</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12723,29 +12735,27 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="K92" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>627</v>
-      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12794,13 +12804,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12809,23 +12819,137 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="AK92" t="s" s="2">
+      <c r="L93" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL92" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AL93" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN92">
+  <autoFilter ref="A1:AN93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12835,7 +12959,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="630">
   <si>
     <t>Property</t>
   </si>
@@ -655,16 +655,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>extends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-extends}
-</t>
-  </si>
-  <si>
-    <t>BeExtends</t>
   </si>
   <si>
     <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
@@ -2313,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4993,7 +4983,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -5011,7 +5001,7 @@
         <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5071,7 +5061,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5092,13 +5082,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B25" t="s" s="2">
         <v>207</v>
       </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5110,19 +5098,19 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>135</v>
@@ -5164,19 +5152,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5206,23 +5192,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>88</v>
@@ -5231,10 +5219,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5276,17 +5264,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5295,7 +5285,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>139</v>
@@ -5318,7 +5308,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>212</v>
@@ -5328,10 +5318,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -5400,7 +5390,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5430,13 +5420,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B28" t="s" s="2">
         <v>215</v>
       </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5445,16 +5433,16 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>216</v>
@@ -5463,9 +5451,11 @@
         <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5502,19 +5492,17 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5523,32 +5511,34 @@
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5557,10 +5547,10 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5569,16 +5559,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5616,17 +5606,19 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AB29" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5641,28 +5633,26 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5680,20 +5670,18 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5742,50 +5730,50 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5797,15 +5785,17 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5842,31 +5832,31 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
@@ -5886,41 +5876,43 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5944,52 +5936,52 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6000,7 +5992,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6017,25 +6009,25 @@
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6060,13 +6052,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6084,7 +6076,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6102,10 +6094,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6116,7 +6108,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6124,7 +6116,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6139,32 +6131,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6176,13 +6168,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6200,7 +6192,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6218,10 +6210,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6232,7 +6224,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6255,32 +6247,30 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6316,7 +6306,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6334,10 +6324,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6348,7 +6338,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6356,7 +6346,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6371,17 +6361,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6394,7 +6382,7 @@
         <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>79</v>
@@ -6430,7 +6418,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6448,10 +6436,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6462,7 +6450,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6485,15 +6473,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6542,7 +6532,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6560,10 +6550,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6574,7 +6564,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6585,7 +6575,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6597,16 +6587,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6662,7 +6652,7 @@
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6671,13 +6661,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>287</v>
+        <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6688,7 +6678,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6711,16 +6701,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6770,7 +6760,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6785,13 +6775,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6800,13 +6790,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6816,7 +6806,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6825,17 +6815,15 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6884,7 +6872,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6899,13 +6887,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6914,13 +6902,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6930,7 +6918,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6939,13 +6927,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6996,7 +6984,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7011,13 +6999,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7026,23 +7014,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7051,16 +7039,20 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>311</v>
+        <v>216</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7108,13 +7100,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7123,13 +7115,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7140,15 +7132,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
@@ -7157,26 +7149,24 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7200,13 +7190,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7224,10 +7214,10 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
@@ -7239,24 +7229,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7282,13 +7272,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7314,13 +7304,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7338,7 +7328,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7353,24 +7343,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>333</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7387,24 +7377,26 @@
         <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7428,13 +7420,11 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7452,13 +7442,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7467,24 +7457,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7492,35 +7482,31 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>347</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7544,11 +7530,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7566,31 +7554,31 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>346</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>353</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7598,18 +7586,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7621,15 +7609,17 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7666,31 +7656,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7710,11 +7700,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7730,21 +7720,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7780,19 +7772,19 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>359</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7804,16 +7796,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>361</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7824,7 +7816,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7835,7 +7827,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7844,23 +7836,19 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>357</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>358</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7908,28 +7896,28 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>362</v>
+        <v>151</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7940,18 +7928,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7963,15 +7951,17 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8008,31 +7998,31 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -8052,18 +8042,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8072,27 +8062,29 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>234</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8122,40 +8114,40 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>155</v>
+        <v>370</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>152</v>
+        <v>372</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8166,7 +8158,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8189,26 +8181,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8250,7 +8240,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8268,10 +8258,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8282,7 +8272,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8305,24 +8295,24 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8364,7 +8354,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8382,10 +8372,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8396,7 +8386,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8419,24 +8409,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>79</v>
@@ -8478,7 +8468,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8496,10 +8486,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8510,7 +8500,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8533,17 +8523,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>396</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8592,7 +8584,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8610,10 +8602,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8624,7 +8616,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8647,19 +8639,19 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>399</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8708,7 +8700,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8726,10 +8718,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8740,7 +8732,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8763,24 +8755,22 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8800,13 +8790,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8839,16 +8829,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8856,7 +8846,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8873,27 +8863,31 @@
         <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>107</v>
+        <v>396</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>79</v>
@@ -8914,13 +8908,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8938,7 +8932,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8953,28 +8947,28 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8984,79 +8978,75 @@
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>399</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P59" t="s" s="2">
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="Q59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9071,35 +9061,35 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -9114,13 +9104,13 @@
         <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9149,64 +9139,64 @@
         <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AL60" t="s" s="2">
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="B61" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9228,13 +9218,13 @@
         <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9263,26 +9253,28 @@
         <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AB61" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9291,7 +9283,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
@@ -9300,56 +9292,52 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>455</v>
-      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>456</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9374,13 +9362,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9398,50 +9386,50 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>445</v>
+        <v>151</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>442</v>
+        <v>152</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9453,15 +9441,17 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9498,31 +9488,31 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9542,11 +9532,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9562,21 +9552,23 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9600,31 +9592,31 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>155</v>
+        <v>359</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9636,16 +9628,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>152</v>
+        <v>361</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9667,7 +9659,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9676,23 +9668,19 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>357</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>358</v>
+        <v>149</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9716,13 +9704,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9740,28 +9728,28 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>362</v>
+        <v>151</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9772,18 +9760,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9795,15 +9783,17 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9840,31 +9830,31 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -9884,18 +9874,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9904,27 +9894,29 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>234</v>
+        <v>365</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9954,40 +9946,40 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>155</v>
+        <v>370</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>152</v>
+        <v>372</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9998,7 +9990,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10006,7 +9998,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
@@ -10021,26 +10013,24 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>79</v>
@@ -10082,7 +10072,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10100,10 +10090,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10114,7 +10104,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10122,7 +10112,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>87</v>
@@ -10137,18 +10127,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10196,7 +10186,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10214,10 +10204,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10228,7 +10218,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10236,7 +10226,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
@@ -10251,17 +10241,17 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10310,7 +10300,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10328,10 +10318,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10342,7 +10332,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10365,17 +10355,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>396</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="N71" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10424,7 +10416,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10442,10 +10434,10 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10456,7 +10448,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10479,19 +10471,19 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>399</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10540,7 +10532,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10558,10 +10550,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10572,7 +10564,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10595,19 +10587,17 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>469</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10656,7 +10646,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10674,10 +10664,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10686,9 +10676,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10696,13 +10686,13 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10711,18 +10701,16 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>475</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10770,10 +10758,10 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>87</v>
@@ -10785,38 +10773,38 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10825,13 +10813,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10882,10 +10870,10 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>87</v>
@@ -10897,28 +10885,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10928,7 +10916,7 @@
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10937,13 +10925,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10994,7 +10982,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11009,28 +10997,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11040,7 +11028,7 @@
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11049,13 +11037,13 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11082,13 +11070,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11106,7 +11094,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11121,38 +11109,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11161,13 +11149,13 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11194,31 +11182,31 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11233,28 +11221,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11273,15 +11261,17 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11330,7 +11320,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11345,35 +11335,35 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>
@@ -11385,16 +11375,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>526</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11420,13 +11410,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11444,7 +11434,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11459,28 +11449,28 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11499,16 +11489,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>545</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11534,13 +11524,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11558,13 +11548,13 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
@@ -11573,38 +11563,38 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AK81" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11613,17 +11603,15 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>548</v>
+        <v>163</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11648,13 +11636,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11672,7 +11660,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11687,16 +11675,16 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11704,7 +11692,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11727,13 +11715,13 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>163</v>
+        <v>559</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11760,31 +11748,31 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11805,18 +11793,18 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11824,13 +11812,13 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11839,15 +11827,17 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>562</v>
+        <v>163</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11872,13 +11862,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -11896,7 +11886,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11911,24 +11901,24 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>79</v>
+        <v>568</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11936,13 +11926,13 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11951,16 +11941,16 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>573</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11986,13 +11976,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12010,7 +12000,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12025,16 +12015,16 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12042,7 +12032,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12062,20 +12052,18 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12124,7 +12112,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12139,28 +12127,28 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12170,7 +12158,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12179,15 +12167,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12236,7 +12226,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12251,13 +12241,13 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12266,13 +12256,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>591</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12282,25 +12272,25 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J88" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12350,7 +12340,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12365,13 +12355,13 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>596</v>
+        <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12380,13 +12370,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12396,7 +12386,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12405,18 +12395,20 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>600</v>
+        <v>163</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12440,13 +12432,13 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>79</v>
+        <v>609</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12464,7 +12456,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12482,25 +12474,25 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>79</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12510,29 +12502,25 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>163</v>
+        <v>614</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>608</v>
+        <v>48</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12556,31 +12544,31 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>612</v>
+        <v>79</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12595,24 +12583,24 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>79</v>
+        <v>616</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>604</v>
+        <v>451</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12623,25 +12611,25 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>617</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>48</v>
+        <v>620</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12692,13 +12680,13 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12707,24 +12695,24 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>619</v>
+        <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>621</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12735,27 +12723,29 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>624</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12804,13 +12794,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12819,137 +12809,23 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>79</v>
+        <v>628</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>454</v>
+        <v>130</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN93">
+  <autoFilter ref="A1:AN92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12959,7 +12835,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription-diagnosticimaging</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-diagnosticimaging</t>
   </si>
   <si>
     <t>Version</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Referral prescription for a generic diagnostic imaging.
+    <t>Referral prescription for a generic diagnostic imaging.
 Please note in .orderDetail, a specific slicing is available to give guidance how to express acquisition modalities if needed. In future iterations of this profile, more slicing might provide additional guidance.</t>
   </si>
   <si>
@@ -112,7 +112,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -556,13 +556,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
     <t>informParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
 </t>
   </si>
   <si>
@@ -572,7 +572,7 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
 </t>
   </si>
   <si>
@@ -585,7 +585,7 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-validity-period}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
@@ -598,7 +598,7 @@
     <t>executed</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-execution-period}
 </t>
   </si>
   <si>
@@ -611,7 +611,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -624,7 +624,7 @@
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-intended-performer}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
@@ -637,7 +637,7 @@
     <t>proposalType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-proposal-type}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-proposal-type}
 </t>
   </si>
   <si>
@@ -650,7 +650,7 @@
     <t>task</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-task-reference}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-task-reference}
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-supporting-info}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-supporting-info}
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
     <t>contraIndication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-contraindication}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-contraindication}
 </t>
   </si>
   <si>
@@ -686,7 +686,7 @@
     <t>contrastFluidUse</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-contrastfluiduse}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-contrastfluiduse}
 </t>
   </si>
   <si>
@@ -825,7 +825,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/uhmep</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/NamingSystem/uhmep</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -1037,7 +1037,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1103,7 +1103,7 @@
     <t>Used for filtering what service request are retrieved and displayed.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-referral-category</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-referral-category</t>
   </si>
   <si>
     <t>RF1-5</t>
@@ -1491,7 +1491,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|Location|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(Group|Location|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient)
 </t>
   </si>
   <si>
@@ -1644,7 +1644,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
@@ -1713,7 +1713,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
@@ -1775,7 +1775,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1809,7 +1809,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1850,7 +1850,7 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|Procedure|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-observation|Condition|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-allergyintolerance|MedicationStatement|QuestionnaireResponse)
+    <t xml:space="preserve">Reference(Resource|Procedure|https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-observation|Condition|https://www.ehealth.fgov.be/standards/fhir/allergy/StructureDefinition/be-allergyintolerance|MedicationStatement|QuestionnaireResponse)
 </t>
   </si>
   <si>
@@ -2336,7 +2336,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>78</v>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="632">
   <si>
     <t>Property</t>
   </si>
@@ -611,7 +611,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -655,6 +655,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
@@ -2303,7 +2310,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4983,7 +4990,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -4998,10 +5005,10 @@
         <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5061,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5082,35 +5089,37 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>135</v>
@@ -5152,17 +5161,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5192,13 +5203,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B26" t="s" s="2">
         <v>209</v>
       </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5210,7 +5219,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>88</v>
@@ -5219,10 +5228,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5264,19 +5273,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5285,7 +5292,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>139</v>
@@ -5308,20 +5315,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -5333,10 +5340,10 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>135</v>
@@ -5390,7 +5397,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5420,11 +5427,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5433,29 +5442,27 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5492,17 +5499,19 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5511,34 +5520,32 @@
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5547,10 +5554,10 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5559,16 +5566,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5606,19 +5613,17 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5633,26 +5638,28 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5670,18 +5677,20 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5730,50 +5739,50 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5785,17 +5794,15 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5832,31 +5839,31 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
@@ -5876,43 +5883,41 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5936,52 +5941,52 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5992,7 +5997,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6009,25 +6014,25 @@
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6052,13 +6057,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6076,7 +6081,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6094,10 +6099,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6108,7 +6113,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6116,7 +6121,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6131,32 +6136,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6168,13 +6173,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6192,7 +6197,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6210,10 +6215,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6224,7 +6229,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6247,30 +6252,32 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6306,7 +6313,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6324,10 +6331,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6338,7 +6345,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6346,7 +6353,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6361,15 +6368,17 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6382,7 +6391,7 @@
         <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>79</v>
@@ -6418,7 +6427,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6436,10 +6445,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6450,7 +6459,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6473,17 +6482,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6532,7 +6539,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6550,10 +6557,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6564,7 +6571,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6575,7 +6582,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6587,16 +6594,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6646,13 +6653,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6661,13 +6668,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6678,7 +6685,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6701,16 +6708,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>289</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6760,7 +6767,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6775,13 +6782,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6790,13 +6797,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6806,7 +6813,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6815,15 +6822,17 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6872,7 +6881,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6887,13 +6896,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>146</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6902,13 +6911,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6918,7 +6927,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6927,13 +6936,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6984,7 +6993,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6999,13 +7008,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7014,23 +7023,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7039,20 +7048,16 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7100,13 +7105,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7115,13 +7120,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7132,15 +7137,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
@@ -7149,24 +7154,26 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7190,13 +7197,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7214,10 +7221,10 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
@@ -7229,24 +7236,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7272,13 +7279,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7304,13 +7311,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7328,7 +7335,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7343,24 +7350,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>332</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7377,26 +7384,24 @@
         <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7420,11 +7425,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7442,13 +7449,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7457,24 +7464,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>349</v>
+        <v>130</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7482,31 +7489,35 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>346</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7530,13 +7541,11 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7554,31 +7563,31 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>352</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7586,18 +7595,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7609,17 +7618,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7656,31 +7663,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7700,11 +7707,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7720,23 +7727,21 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>355</v>
+        <v>233</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7772,19 +7777,19 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7796,16 +7801,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>361</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7816,7 +7821,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7827,7 +7832,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7836,19 +7841,23 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>356</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7896,28 +7905,28 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>151</v>
+        <v>361</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>152</v>
+        <v>363</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7928,18 +7937,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7951,17 +7960,15 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7998,31 +8005,31 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -8042,18 +8049,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8062,29 +8069,27 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8114,40 +8119,40 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>370</v>
+        <v>155</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>152</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8158,7 +8163,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8181,24 +8186,26 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8240,7 +8247,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8258,10 +8265,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8272,7 +8279,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8295,24 +8302,24 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8354,7 +8361,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8372,10 +8379,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8386,7 +8393,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8409,24 +8416,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>79</v>
@@ -8468,7 +8475,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8486,10 +8493,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8500,7 +8507,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8523,19 +8530,17 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>396</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8584,7 +8589,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8602,10 +8607,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8616,7 +8621,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8639,19 +8644,19 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>398</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8700,7 +8705,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8718,10 +8723,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8732,7 +8737,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8755,22 +8760,24 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8790,13 +8797,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8814,7 +8821,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8829,16 +8836,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8846,7 +8853,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8863,31 +8870,27 @@
         <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>396</v>
+        <v>107</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>79</v>
@@ -8908,13 +8911,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8932,7 +8935,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8947,28 +8950,28 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8978,31 +8981,35 @@
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>163</v>
+        <v>398</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="Q59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9022,13 +9029,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9046,7 +9053,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9061,35 +9068,35 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -9104,13 +9111,13 @@
         <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9139,64 +9146,64 @@
         <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9218,13 +9225,13 @@
         <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9253,28 +9260,26 @@
         <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9283,7 +9288,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
@@ -9292,52 +9297,56 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>455</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9362,13 +9371,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9386,50 +9395,50 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>151</v>
+        <v>444</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>441</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9441,17 +9450,15 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9488,31 +9495,31 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9532,11 +9539,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9552,23 +9559,21 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>355</v>
+        <v>233</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9592,31 +9597,31 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>359</v>
+        <v>155</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9628,16 +9633,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>361</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9648,7 +9653,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9659,7 +9664,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9668,19 +9673,23 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>356</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9704,13 +9713,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9728,28 +9737,28 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>151</v>
+        <v>361</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>152</v>
+        <v>363</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9760,18 +9769,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9783,17 +9792,15 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9830,31 +9837,31 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -9874,18 +9881,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9894,29 +9901,27 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9946,40 +9951,40 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>370</v>
+        <v>155</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>372</v>
+        <v>152</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9998,7 +10003,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
@@ -10013,24 +10018,26 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>79</v>
@@ -10072,7 +10079,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10090,10 +10097,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10104,7 +10111,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10112,7 +10119,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>87</v>
@@ -10127,18 +10134,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10186,7 +10193,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10204,10 +10211,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10218,7 +10225,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10226,7 +10233,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
@@ -10241,17 +10248,17 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10300,7 +10307,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10318,10 +10325,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10332,7 +10339,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10355,19 +10362,17 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>396</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10416,7 +10421,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10434,10 +10439,10 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10448,7 +10453,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10471,19 +10476,19 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>398</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10532,7 +10537,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10550,10 +10555,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10564,7 +10569,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10587,17 +10592,19 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>469</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>470</v>
+        <v>407</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10646,7 +10653,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>468</v>
+        <v>411</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10664,10 +10671,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10676,9 +10683,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10686,13 +10693,13 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10701,16 +10708,18 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10758,10 +10767,10 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>87</v>
@@ -10773,38 +10782,38 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10813,13 +10822,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10870,10 +10879,10 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>87</v>
@@ -10885,28 +10894,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10916,7 +10925,7 @@
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10925,13 +10934,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10982,7 +10991,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10997,28 +11006,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11028,7 +11037,7 @@
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11037,13 +11046,13 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11070,13 +11079,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11094,7 +11103,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11109,38 +11118,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11149,13 +11158,13 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11182,13 +11191,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11206,7 +11215,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11221,28 +11230,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11261,17 +11270,15 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11320,7 +11327,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11335,35 +11342,35 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>
@@ -11375,16 +11382,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>525</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11410,13 +11417,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11434,7 +11441,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11449,28 +11456,28 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11489,16 +11496,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>545</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11524,13 +11531,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11548,13 +11555,13 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
@@ -11563,38 +11570,38 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11603,15 +11610,17 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>163</v>
+        <v>547</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11636,13 +11645,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11660,7 +11669,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11675,16 +11684,16 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>551</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11692,7 +11701,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11715,13 +11724,13 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>559</v>
+        <v>163</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11748,13 +11757,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11772,7 +11781,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11793,18 +11802,18 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11812,13 +11821,13 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11827,17 +11836,15 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>163</v>
+        <v>561</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11862,13 +11869,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -11886,7 +11893,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11901,24 +11908,24 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11926,13 +11933,13 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11941,16 +11948,16 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>573</v>
+        <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11976,13 +11983,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>568</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12000,7 +12007,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12015,16 +12022,16 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12032,7 +12039,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12052,18 +12059,20 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12112,7 +12121,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12127,28 +12136,28 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12158,7 +12167,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12167,17 +12176,15 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12226,7 +12233,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12241,13 +12248,13 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12256,13 +12263,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12272,25 +12279,25 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12340,7 +12347,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12355,13 +12362,13 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>79</v>
+        <v>595</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12370,13 +12377,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12386,7 +12393,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12395,20 +12402,18 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>163</v>
+        <v>599</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12432,13 +12437,13 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>609</v>
+        <v>79</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>610</v>
+        <v>79</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12456,7 +12461,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12474,25 +12479,25 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>612</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12502,25 +12507,29 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>614</v>
+        <v>163</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>48</v>
+        <v>607</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12544,13 +12553,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>79</v>
+        <v>611</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>79</v>
+        <v>612</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12568,7 +12577,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12583,24 +12592,24 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>616</v>
+        <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>451</v>
+        <v>603</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12611,25 +12620,25 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>616</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>620</v>
+        <v>48</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12680,13 +12689,13 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12695,24 +12704,24 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>79</v>
+        <v>618</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>79</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12723,29 +12732,27 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>624</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>627</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12794,13 +12801,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12809,23 +12816,137 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="AK92" t="s" s="2">
+      <c r="M93" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL92" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AL93" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN92">
+  <autoFilter ref="A1:AN93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12835,7 +12956,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="630">
   <si>
     <t>Property</t>
   </si>
@@ -611,7 +611,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -655,13 +655,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
-</t>
   </si>
   <si>
     <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
@@ -2310,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4990,7 +4983,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -5005,10 +4998,10 @@
         <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5068,7 +5061,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5089,37 +5082,35 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>135</v>
@@ -5161,19 +5152,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5203,11 +5192,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5219,7 +5210,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>88</v>
@@ -5228,10 +5219,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5273,17 +5264,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5292,7 +5285,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>139</v>
@@ -5315,20 +5308,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -5340,10 +5333,10 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>135</v>
@@ -5397,7 +5390,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5427,13 +5420,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5442,27 +5433,29 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I28" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5499,19 +5492,17 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5520,32 +5511,34 @@
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5554,10 +5547,10 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5566,16 +5559,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5613,17 +5606,19 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AB29" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5638,28 +5633,26 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B30" t="s" s="2">
         <v>228</v>
       </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5677,20 +5670,18 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5739,50 +5730,50 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5794,15 +5785,17 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5839,31 +5832,31 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
@@ -5883,41 +5876,43 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5941,52 +5936,52 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5997,7 +5992,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6014,25 +6009,25 @@
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6057,13 +6052,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6081,7 +6076,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6099,10 +6094,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6113,7 +6108,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6121,7 +6116,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6136,32 +6131,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6173,13 +6168,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6197,7 +6192,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6215,10 +6210,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6229,7 +6224,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6252,32 +6247,30 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6313,7 +6306,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6331,10 +6324,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6345,7 +6338,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6353,7 +6346,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6368,17 +6361,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6391,7 +6382,7 @@
         <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>79</v>
@@ -6427,7 +6418,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6445,10 +6436,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6459,7 +6450,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6482,15 +6473,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6539,7 +6532,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6557,10 +6550,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6571,7 +6564,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6582,7 +6575,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6594,16 +6587,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6653,13 +6646,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6668,13 +6661,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6685,7 +6678,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6708,16 +6701,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>289</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6767,7 +6760,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6782,13 +6775,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6797,13 +6790,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6813,7 +6806,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6822,17 +6815,15 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6881,7 +6872,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6896,13 +6887,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6911,13 +6902,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6927,7 +6918,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6936,13 +6927,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6993,7 +6984,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7008,13 +6999,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7023,23 +7014,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7048,16 +7039,20 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7105,13 +7100,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7120,13 +7115,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7137,15 +7132,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
@@ -7154,26 +7149,24 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7197,13 +7190,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7221,10 +7214,10 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
@@ -7236,24 +7229,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7279,13 +7272,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7311,13 +7304,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7335,7 +7328,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7350,24 +7343,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>332</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7384,24 +7377,26 @@
         <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7425,13 +7420,11 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7449,13 +7442,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7464,24 +7457,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7489,35 +7482,31 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>346</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7541,11 +7530,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7563,31 +7554,31 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>345</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>352</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7595,18 +7586,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7618,15 +7609,17 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7663,31 +7656,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7707,11 +7700,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7727,21 +7720,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>234</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7777,19 +7772,19 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>359</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7801,16 +7796,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>361</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7821,7 +7816,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7832,7 +7827,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7841,23 +7836,19 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>356</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7905,28 +7896,28 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>361</v>
+        <v>151</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>363</v>
+        <v>152</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7937,18 +7928,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7960,15 +7951,17 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8005,31 +7998,31 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -8049,18 +8042,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8069,27 +8062,29 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8119,40 +8114,40 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>155</v>
+        <v>370</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>152</v>
+        <v>372</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8163,7 +8158,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8186,26 +8181,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8247,7 +8240,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8265,10 +8258,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8279,7 +8272,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8302,24 +8295,24 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8361,7 +8354,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8379,10 +8372,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8393,7 +8386,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8416,24 +8409,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>79</v>
@@ -8475,7 +8468,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8493,10 +8486,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8507,7 +8500,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8530,17 +8523,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>396</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8589,7 +8584,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8607,10 +8602,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8621,7 +8616,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8644,19 +8639,19 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>398</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8705,7 +8700,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8723,10 +8718,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8737,7 +8732,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8760,24 +8755,22 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8797,13 +8790,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8821,7 +8814,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8836,16 +8829,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8853,7 +8846,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8870,27 +8863,31 @@
         <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>107</v>
+        <v>396</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>79</v>
@@ -8911,13 +8908,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8935,7 +8932,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8950,28 +8947,28 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8981,35 +8978,31 @@
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>398</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P59" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9029,13 +9022,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9053,7 +9046,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9068,35 +9061,35 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -9111,13 +9104,13 @@
         <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9146,64 +9139,64 @@
         <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM60" t="s" s="2">
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="B61" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>443</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9225,13 +9218,13 @@
         <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9260,26 +9253,28 @@
         <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AB61" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9288,7 +9283,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
@@ -9297,56 +9292,52 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>443</v>
-      </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B62" t="s" s="2">
         <v>454</v>
       </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>455</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9371,13 +9362,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9395,50 +9386,50 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>444</v>
+        <v>151</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>441</v>
+        <v>152</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9450,15 +9441,17 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9495,31 +9488,31 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9539,11 +9532,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9559,21 +9552,23 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>234</v>
+        <v>356</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9597,31 +9592,31 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>155</v>
+        <v>359</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9633,16 +9628,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>152</v>
+        <v>361</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9653,7 +9648,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9664,7 +9659,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9673,23 +9668,19 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>356</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>357</v>
+        <v>149</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9713,13 +9704,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9737,28 +9728,28 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>361</v>
+        <v>151</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>363</v>
+        <v>152</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9769,18 +9760,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9792,15 +9783,17 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9837,31 +9830,31 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -9881,18 +9874,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9901,27 +9894,29 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9951,40 +9946,40 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>155</v>
+        <v>370</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>152</v>
+        <v>372</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10003,7 +9998,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
@@ -10018,26 +10013,24 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>79</v>
@@ -10079,7 +10072,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10097,10 +10090,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10111,7 +10104,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10119,7 +10112,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>87</v>
@@ -10134,18 +10127,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10193,7 +10186,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10211,10 +10204,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10225,7 +10218,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10233,7 +10226,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
@@ -10248,17 +10241,17 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10307,7 +10300,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10325,10 +10318,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10339,7 +10332,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10362,17 +10355,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>396</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="N71" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10421,7 +10416,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10439,10 +10434,10 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10453,7 +10448,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10476,19 +10471,19 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>398</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10537,7 +10532,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10555,10 +10550,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10569,7 +10564,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10592,19 +10587,17 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>469</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10653,7 +10646,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10671,10 +10664,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10683,9 +10676,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10693,13 +10686,13 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10708,18 +10701,16 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>474</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10767,10 +10758,10 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>87</v>
@@ -10782,38 +10773,38 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10822,13 +10813,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10879,10 +10870,10 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>87</v>
@@ -10894,28 +10885,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10925,7 +10916,7 @@
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10934,13 +10925,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10991,7 +10982,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11006,28 +10997,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11037,7 +11028,7 @@
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11046,13 +11037,13 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11079,13 +11070,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11103,7 +11094,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11118,38 +11109,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11158,13 +11149,13 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11191,13 +11182,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11215,7 +11206,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11230,28 +11221,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11270,15 +11261,17 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11327,7 +11320,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11342,35 +11335,35 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>
@@ -11382,16 +11375,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>525</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11417,13 +11410,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11441,7 +11434,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11456,28 +11449,28 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11496,16 +11489,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>545</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11531,13 +11524,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11555,13 +11548,13 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
@@ -11570,38 +11563,38 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AL81" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>544</v>
-      </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11610,17 +11603,15 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>547</v>
+        <v>163</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11645,13 +11636,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11669,7 +11660,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11684,16 +11675,16 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11701,7 +11692,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11724,13 +11715,13 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>163</v>
+        <v>559</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11757,31 +11748,31 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11802,18 +11793,18 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11821,13 +11812,13 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11836,15 +11827,17 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>561</v>
+        <v>163</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11869,13 +11862,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -11893,7 +11886,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11908,24 +11901,24 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>79</v>
+        <v>568</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11933,13 +11926,13 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11948,16 +11941,16 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>573</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11983,13 +11976,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12007,7 +12000,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12022,16 +12015,16 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12039,7 +12032,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12059,20 +12052,18 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12121,7 +12112,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12136,28 +12127,28 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>573</v>
+        <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12167,7 +12158,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12176,15 +12167,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12233,7 +12226,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12248,13 +12241,13 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12263,13 +12256,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>590</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12279,25 +12272,25 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J88" t="s" s="2">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12347,7 +12340,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12362,13 +12355,13 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>595</v>
+        <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12377,13 +12370,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12393,7 +12386,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12402,18 +12395,20 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>599</v>
+        <v>163</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12437,13 +12432,13 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>79</v>
+        <v>609</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12461,7 +12456,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12479,25 +12474,25 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>79</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>606</v>
+        <v>79</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12507,29 +12502,25 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>163</v>
+        <v>614</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>607</v>
+        <v>48</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>610</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12553,13 +12544,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>611</v>
+        <v>79</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>612</v>
+        <v>79</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12577,7 +12568,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12592,24 +12583,24 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>79</v>
+        <v>616</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>603</v>
+        <v>451</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12620,25 +12611,25 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>616</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>48</v>
+        <v>620</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12689,13 +12680,13 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12704,24 +12695,24 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>618</v>
+        <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12732,27 +12723,29 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>624</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12801,13 +12794,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12816,137 +12809,23 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>79</v>
+        <v>628</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>453</v>
+        <v>130</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN93">
+  <autoFilter ref="A1:AN92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12956,7 +12835,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$97</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -1923,6 +1923,31 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.extension</t>
+  </si>
+  <si>
+    <t>bodyLaterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
+</t>
+  </si>
+  <si>
+    <t>BeExtLaterality</t>
+  </si>
+  <si>
+    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.text</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2303,7 +2328,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12499,7 +12524,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12511,13 +12536,13 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>614</v>
+        <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>615</v>
+        <v>150</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12568,70 +12593,72 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>613</v>
+        <v>151</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>616</v>
+        <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>617</v>
+        <v>152</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>618</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>620</v>
+        <v>231</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12668,40 +12695,40 @@
         <v>79</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>619</v>
+        <v>155</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>622</v>
+        <v>152</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12712,9 +12739,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B92" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="C92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12723,7 +12752,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12735,17 +12764,15 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>627</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12794,7 +12821,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>623</v>
+        <v>155</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12806,26 +12833,596 @@
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ92" t="s" s="2">
+      <c r="AJ93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="AK92" t="s" s="2">
+      <c r="L96" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AK97" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL92" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AL97" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN92">
+  <autoFilter ref="A1:AN97">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12835,7 +13432,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="639">
   <si>
     <t>Property</t>
   </si>
@@ -559,14 +559,17 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+    <t>feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
   </si>
   <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+    <t>Give feedback to the prescriber</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>coprescriber</t>
@@ -4096,7 +4099,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -4114,7 +4117,7 @@
         <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4186,7 +4189,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4200,7 +4203,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4222,13 +4225,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4314,7 +4317,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4336,13 +4339,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4428,7 +4431,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4450,13 +4453,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4542,7 +4545,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4564,13 +4567,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4656,7 +4659,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4678,13 +4681,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4770,7 +4773,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4792,13 +4795,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4884,7 +4887,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -4906,13 +4909,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4998,7 +5001,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
@@ -5020,10 +5023,10 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>135</v>
@@ -5109,7 +5112,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5187,7 +5190,7 @@
         <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5219,10 +5222,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5244,10 +5247,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5301,7 +5304,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5333,10 +5336,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>79</v>
@@ -5358,10 +5361,10 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>135</v>
@@ -5415,7 +5418,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5447,7 +5450,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5470,16 +5473,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5517,7 +5520,7 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
@@ -5527,7 +5530,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5542,27 +5545,27 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
@@ -5584,16 +5587,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5643,7 +5646,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5658,24 +5661,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5787,11 +5790,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5813,13 +5816,13 @@
         <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5901,7 +5904,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5927,16 +5930,16 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5961,13 +5964,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5985,7 +5988,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6006,7 +6009,7 @@
         <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6017,7 +6020,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6043,16 +6046,16 @@
         <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6080,10 +6083,10 @@
         <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6101,7 +6104,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6119,10 +6122,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6133,7 +6136,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6159,29 +6162,29 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6217,7 +6220,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6235,10 +6238,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6249,7 +6252,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6275,13 +6278,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6295,7 +6298,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6331,7 +6334,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6349,10 +6352,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6363,7 +6366,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6386,13 +6389,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6443,7 +6446,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6461,10 +6464,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6475,7 +6478,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6498,16 +6501,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6557,7 +6560,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6575,10 +6578,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6589,7 +6592,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6612,16 +6615,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6671,7 +6674,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6686,13 +6689,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6703,7 +6706,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6729,13 +6732,13 @@
         <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6785,7 +6788,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6800,13 +6803,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6817,11 +6820,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6840,13 +6843,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6897,7 +6900,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6912,13 +6915,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6929,11 +6932,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6952,13 +6955,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7009,7 +7012,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7024,13 +7027,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7041,11 +7044,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7064,19 +7067,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7125,7 +7128,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7140,13 +7143,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7157,7 +7160,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7183,13 +7186,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7215,13 +7218,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7239,7 +7242,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7254,24 +7257,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7297,13 +7300,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7329,13 +7332,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7353,7 +7356,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7368,16 +7371,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7385,7 +7388,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7411,16 +7414,16 @@
         <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7449,7 +7452,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7467,7 +7470,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7485,13 +7488,13 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7611,11 +7614,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7637,13 +7640,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7725,7 +7728,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7748,19 +7751,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7809,7 +7812,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7827,10 +7830,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7841,7 +7844,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7953,11 +7956,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7979,13 +7982,13 @@
         <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8067,7 +8070,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8093,23 +8096,23 @@
         <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8151,7 +8154,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8169,10 +8172,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8183,7 +8186,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8209,13 +8212,13 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8265,7 +8268,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8283,10 +8286,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8297,7 +8300,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8323,21 +8326,21 @@
         <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8379,7 +8382,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8397,10 +8400,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8411,7 +8414,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8437,14 +8440,14 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8493,7 +8496,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8511,10 +8514,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8548,19 +8551,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8609,7 +8612,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8627,10 +8630,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8641,7 +8644,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8667,16 +8670,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8725,7 +8728,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8743,10 +8746,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8757,7 +8760,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8783,10 +8786,10 @@
         <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8794,7 +8797,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
@@ -8815,13 +8818,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8839,7 +8842,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8854,16 +8857,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8871,7 +8874,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8894,70 +8897,70 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8972,13 +8975,13 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8989,11 +8992,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9015,13 +9018,13 @@
         <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9050,10 +9053,10 @@
         <v>166</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9071,7 +9074,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9086,28 +9089,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9129,13 +9132,13 @@
         <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9164,16 +9167,16 @@
         <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
@@ -9183,7 +9186,7 @@
         <v>137</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9192,7 +9195,7 @@
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
@@ -9201,27 +9204,27 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9243,13 +9246,13 @@
         <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9278,10 +9281,10 @@
         <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9299,7 +9302,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9308,7 +9311,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
@@ -9317,21 +9320,21 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9443,11 +9446,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9469,13 +9472,13 @@
         <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9557,7 +9560,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9580,19 +9583,19 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9617,13 +9620,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9641,7 +9644,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9659,10 +9662,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9673,7 +9676,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9785,11 +9788,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9811,13 +9814,13 @@
         <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9899,7 +9902,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9925,23 +9928,23 @@
         <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9983,7 +9986,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10001,10 +10004,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10015,7 +10018,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10041,13 +10044,13 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10097,7 +10100,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10115,10 +10118,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10129,7 +10132,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10155,14 +10158,14 @@
         <v>107</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10211,7 +10214,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10229,10 +10232,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10243,7 +10246,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10269,14 +10272,14 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10325,7 +10328,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10343,10 +10346,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10357,7 +10360,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10380,19 +10383,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10441,7 +10444,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10459,10 +10462,10 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10473,7 +10476,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10499,16 +10502,16 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10557,7 +10560,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10575,10 +10578,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10589,7 +10592,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10612,17 +10615,17 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10671,7 +10674,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10689,10 +10692,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10703,7 +10706,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10726,13 +10729,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10783,7 +10786,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>87</v>
@@ -10798,28 +10801,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10838,13 +10841,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10895,7 +10898,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10910,28 +10913,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10950,13 +10953,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11007,7 +11010,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11022,24 +11025,24 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11062,13 +11065,13 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11098,10 +11101,10 @@
         <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11119,7 +11122,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11140,22 +11143,22 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11174,13 +11177,13 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11231,7 +11234,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11246,28 +11249,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11286,16 +11289,16 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11345,7 +11348,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11360,28 +11363,28 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11403,13 +11406,13 @@
         <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11438,10 +11441,10 @@
         <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11459,7 +11462,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11474,16 +11477,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11491,11 +11494,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11514,16 +11517,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11573,7 +11576,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11588,16 +11591,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11605,7 +11608,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11631,10 +11634,10 @@
         <v>163</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11664,10 +11667,10 @@
         <v>166</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11685,7 +11688,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11706,10 +11709,10 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11717,7 +11720,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11740,13 +11743,13 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11797,7 +11800,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11818,10 +11821,10 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11829,7 +11832,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11855,13 +11858,13 @@
         <v>163</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11890,10 +11893,10 @@
         <v>166</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -11911,7 +11914,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11926,16 +11929,16 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -11943,7 +11946,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11966,16 +11969,16 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12025,7 +12028,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12040,16 +12043,16 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12057,7 +12060,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12080,13 +12083,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12137,7 +12140,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12152,13 +12155,13 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12169,11 +12172,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12192,16 +12195,16 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12251,7 +12254,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12266,13 +12269,13 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12283,7 +12286,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12306,16 +12309,16 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12365,7 +12368,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12383,10 +12386,10 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12397,11 +12400,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12423,16 +12426,16 @@
         <v>163</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12460,10 +12463,10 @@
         <v>166</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12481,7 +12484,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12499,21 +12502,21 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12625,11 +12628,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12651,13 +12654,13 @@
         <v>133</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12739,10 +12742,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>79</v>
@@ -12764,13 +12767,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12853,7 +12856,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12876,19 +12879,19 @@
         <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12937,7 +12940,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12955,10 +12958,10 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -12969,7 +12972,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12995,16 +12998,16 @@
         <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13053,7 +13056,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13071,10 +13074,10 @@
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13085,7 +13088,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13108,13 +13111,13 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13165,7 +13168,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13180,24 +13183,24 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13223,10 +13226,10 @@
         <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13277,7 +13280,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13295,10 +13298,10 @@
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
@@ -13309,7 +13312,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13332,16 +13335,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13391,7 +13394,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13406,13 +13409,13 @@
         <v>99</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$98</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="641">
   <si>
     <t>Property</t>
   </si>
@@ -614,7 +614,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -658,6 +658,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>relevantSupportingInformationAsAnnotationOrCodeableConcept</t>
@@ -2331,7 +2338,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5011,7 +5018,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -5026,10 +5033,10 @@
         <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5089,7 +5096,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5110,35 +5117,37 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>135</v>
@@ -5180,17 +5189,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5220,13 +5231,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B26" t="s" s="2">
         <v>210</v>
       </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5238,7 +5247,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>88</v>
@@ -5247,10 +5256,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5292,19 +5301,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5313,7 +5320,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>139</v>
@@ -5336,20 +5343,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -5361,10 +5368,10 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>135</v>
@@ -5418,7 +5425,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5448,11 +5455,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5461,29 +5470,27 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5520,17 +5527,19 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5539,34 +5548,32 @@
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5575,10 +5582,10 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5587,16 +5594,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5634,19 +5641,17 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5661,26 +5666,28 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5698,18 +5705,20 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5758,50 +5767,50 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5813,17 +5822,15 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5860,31 +5867,31 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
@@ -5904,43 +5911,41 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5964,52 +5969,52 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6020,7 +6025,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6037,25 +6042,25 @@
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6080,13 +6085,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6104,7 +6109,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6122,10 +6127,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6136,7 +6141,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6144,7 +6149,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6159,32 +6164,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6196,13 +6201,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6220,7 +6225,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6238,10 +6243,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6252,7 +6257,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6275,30 +6280,32 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6334,7 +6341,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6352,10 +6359,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6366,7 +6373,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6374,7 +6381,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6389,15 +6396,17 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6410,7 +6419,7 @@
         <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>79</v>
@@ -6446,7 +6455,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6464,10 +6473,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6478,7 +6487,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6501,17 +6510,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6560,7 +6567,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6578,10 +6585,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6592,7 +6599,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6603,7 +6610,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6615,16 +6622,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6674,13 +6681,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6689,13 +6696,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6706,7 +6713,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6729,16 +6736,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>290</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6788,7 +6795,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6803,13 +6810,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6818,13 +6825,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6834,7 +6841,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6843,15 +6850,17 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6900,7 +6909,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6915,13 +6924,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>305</v>
+        <v>146</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6930,13 +6939,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6946,7 +6955,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6955,13 +6964,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7012,7 +7021,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7027,13 +7036,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7042,23 +7051,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7067,20 +7076,16 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7128,13 +7133,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7143,13 +7148,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7160,15 +7165,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
@@ -7177,24 +7182,26 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7218,13 +7225,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7242,10 +7249,10 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
@@ -7257,24 +7264,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7300,13 +7307,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7332,13 +7339,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7356,7 +7363,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7371,24 +7378,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7405,26 +7412,24 @@
         <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7448,11 +7453,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7470,13 +7477,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7485,24 +7492,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7510,31 +7517,35 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7558,13 +7569,11 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7582,31 +7591,31 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>346</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7614,18 +7623,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7637,17 +7646,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7684,31 +7691,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7728,11 +7735,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7748,23 +7755,21 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>355</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7800,19 +7805,19 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>360</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7824,16 +7829,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7844,7 +7849,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7855,7 +7860,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7864,19 +7869,23 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>358</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7924,28 +7933,28 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7956,18 +7965,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7979,17 +7988,15 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8026,31 +8033,31 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -8070,18 +8077,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8090,29 +8097,27 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>367</v>
+        <v>235</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8142,40 +8147,40 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>371</v>
+        <v>155</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>373</v>
+        <v>152</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8186,7 +8191,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8209,24 +8214,26 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8268,7 +8275,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8286,10 +8293,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8300,7 +8307,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8323,24 +8330,24 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8382,7 +8389,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8400,10 +8407,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8414,7 +8421,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8437,24 +8444,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>79</v>
@@ -8496,7 +8503,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8514,10 +8521,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8528,7 +8535,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8551,19 +8558,17 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>397</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8612,7 +8617,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8630,10 +8635,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8644,7 +8649,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8667,19 +8672,19 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8728,7 +8733,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8746,10 +8751,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8760,7 +8765,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8783,22 +8788,24 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" t="s" s="2">
-        <v>416</v>
-      </c>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8818,13 +8825,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8842,7 +8849,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8857,16 +8864,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8874,7 +8881,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8891,31 +8898,27 @@
         <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>397</v>
+        <v>107</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>79</v>
@@ -8936,13 +8939,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8960,7 +8963,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8975,28 +8978,28 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9006,31 +9009,35 @@
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>163</v>
+        <v>399</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="Q59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9050,13 +9057,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9074,7 +9081,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9089,35 +9096,35 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -9132,13 +9139,13 @@
         <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9167,64 +9174,64 @@
         <v>166</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9246,13 +9253,13 @@
         <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9281,28 +9288,26 @@
         <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9311,7 +9316,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
@@ -9320,52 +9325,56 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>456</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9390,13 +9399,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9414,50 +9423,50 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>151</v>
+        <v>445</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>442</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9469,17 +9478,15 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9516,31 +9523,31 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9560,11 +9567,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9580,23 +9587,21 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>355</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9620,31 +9625,31 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>360</v>
+        <v>155</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9656,16 +9661,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9676,7 +9681,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9687,7 +9692,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9696,19 +9701,23 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>149</v>
+        <v>358</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9732,13 +9741,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9756,28 +9765,28 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9788,18 +9797,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9811,17 +9820,15 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9858,31 +9865,31 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -9902,18 +9909,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9922,29 +9929,27 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>367</v>
+        <v>235</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9974,40 +9979,40 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>371</v>
+        <v>155</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>373</v>
+        <v>152</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10026,7 +10031,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
@@ -10041,24 +10046,26 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>79</v>
@@ -10100,7 +10107,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10118,10 +10125,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10132,7 +10139,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10140,7 +10147,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>87</v>
@@ -10155,18 +10162,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10214,7 +10221,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10232,10 +10239,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10246,7 +10253,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10254,7 +10261,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
@@ -10269,17 +10276,17 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10328,7 +10335,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10346,10 +10353,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10360,7 +10367,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10383,19 +10390,17 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>397</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10444,7 +10449,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10462,10 +10467,10 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10476,7 +10481,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10499,19 +10504,19 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10560,7 +10565,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10578,10 +10583,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10592,7 +10597,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10615,17 +10620,19 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>470</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>471</v>
+        <v>408</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>473</v>
+        <v>411</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10674,7 +10681,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10692,10 +10699,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10704,9 +10711,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10714,13 +10721,13 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10729,16 +10736,18 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10786,10 +10795,10 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>87</v>
@@ -10801,38 +10810,38 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10841,13 +10850,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10898,10 +10907,10 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>87</v>
@@ -10913,28 +10922,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10944,7 +10953,7 @@
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10953,13 +10962,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11010,7 +11019,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11025,28 +11034,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11056,7 +11065,7 @@
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11065,13 +11074,13 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11098,13 +11107,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11122,7 +11131,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11137,38 +11146,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11177,13 +11186,13 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11210,13 +11219,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11234,7 +11243,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11249,28 +11258,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>518</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11289,17 +11298,15 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11348,7 +11355,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11363,35 +11370,35 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>
@@ -11403,16 +11410,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>526</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11438,13 +11445,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11462,7 +11469,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11477,28 +11484,28 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11517,16 +11524,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>546</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11552,13 +11559,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11576,13 +11583,13 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
@@ -11591,38 +11598,38 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11631,15 +11638,17 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>163</v>
+        <v>548</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11664,13 +11673,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11688,7 +11697,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11703,16 +11712,16 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11720,7 +11729,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11743,13 +11752,13 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>560</v>
+        <v>163</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11776,13 +11785,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11800,7 +11809,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11821,18 +11830,18 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11840,13 +11849,13 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11855,17 +11864,15 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>163</v>
+        <v>562</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11890,13 +11897,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -11914,7 +11921,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11929,24 +11936,24 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11954,13 +11961,13 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11969,16 +11976,16 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>574</v>
+        <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12004,13 +12011,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>570</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12028,7 +12035,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12043,16 +12050,16 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12060,7 +12067,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12080,18 +12087,20 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12140,7 +12149,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12155,28 +12164,28 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>589</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12186,7 +12195,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12195,17 +12204,15 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12254,7 +12261,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12269,13 +12276,13 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12284,13 +12291,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12300,25 +12307,25 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12368,7 +12375,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12383,13 +12390,13 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12398,13 +12405,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12414,7 +12421,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12423,20 +12430,18 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>163</v>
+        <v>600</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12460,13 +12465,13 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>610</v>
+        <v>79</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>611</v>
+        <v>79</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12484,7 +12489,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12502,53 +12507,57 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>613</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>149</v>
+        <v>608</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>611</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12572,13 +12581,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>79</v>
+        <v>612</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>79</v>
+        <v>613</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12596,50 +12605,50 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>151</v>
+        <v>606</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>152</v>
+        <v>614</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>79</v>
+        <v>615</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12651,17 +12660,15 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12698,31 +12705,31 @@
         <v>79</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
@@ -12742,20 +12749,18 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>616</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12767,15 +12772,17 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>617</v>
+        <v>133</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>618</v>
+        <v>234</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12812,16 +12819,16 @@
         <v>79</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE92" t="s" s="2">
         <v>155</v>
@@ -12845,7 +12852,7 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12856,9 +12863,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B93" s="2"/>
+        <v>617</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="C93" t="s" s="2">
         <v>79</v>
       </c>
@@ -12867,7 +12876,7 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -12876,23 +12885,19 @@
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>355</v>
+        <v>619</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>356</v>
+        <v>620</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -12940,7 +12945,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>360</v>
+        <v>155</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12952,16 +12957,16 @@
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -12972,7 +12977,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12983,7 +12988,7 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
@@ -12995,19 +13000,19 @@
         <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13056,13 +13061,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13074,10 +13079,10 @@
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13088,7 +13093,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13099,7 +13104,7 @@
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>79</v>
@@ -13108,19 +13113,23 @@
         <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>623</v>
+        <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>48</v>
+        <v>408</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13168,13 +13177,13 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>622</v>
+        <v>412</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -13183,24 +13192,24 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>625</v>
+        <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>626</v>
+        <v>414</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>627</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13211,25 +13220,25 @@
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>89</v>
+        <v>625</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>629</v>
+        <v>48</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13280,13 +13289,13 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>79</v>
@@ -13295,24 +13304,24 @@
         <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>79</v>
+        <v>627</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>79</v>
+        <v>629</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13323,29 +13332,27 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>633</v>
+        <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>636</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13394,13 +13401,13 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
@@ -13409,23 +13416,137 @@
         <v>99</v>
       </c>
       <c r="AJ97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="AK97" t="s" s="2">
+      <c r="M98" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AK98" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL97" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AL98" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN97">
+  <autoFilter ref="A1:AN98">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13435,7 +13556,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI96">
+  <conditionalFormatting sqref="A2:AI97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-diagnosticimaging.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="643">
   <si>
     <t>Property</t>
   </si>
@@ -664,6 +664,13 @@
   </si>
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
   </si>
   <si>
@@ -2338,7 +2345,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN98"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5132,7 +5139,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -5147,7 +5154,7 @@
         <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>135</v>
@@ -5210,7 +5217,7 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>139</v>
@@ -5231,35 +5238,37 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5301,17 +5310,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5341,13 +5352,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B27" t="s" s="2">
         <v>212</v>
       </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5359,7 +5368,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>88</v>
@@ -5368,10 +5377,10 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>135</v>
@@ -5413,19 +5422,17 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5434,7 +5441,7 @@
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>139</v>
@@ -5457,20 +5464,20 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -5482,10 +5489,10 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>135</v>
@@ -5539,7 +5546,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5569,11 +5576,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5582,29 +5591,27 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5641,17 +5648,19 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AB29" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5660,34 +5669,32 @@
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5696,10 +5703,10 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5708,16 +5715,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5755,19 +5762,17 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5782,26 +5787,28 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5819,18 +5826,20 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5879,50 +5888,50 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5934,17 +5943,15 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5981,31 +5988,31 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -6025,43 +6032,41 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6085,52 +6090,52 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6141,7 +6146,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6158,25 +6163,25 @@
         <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6201,13 +6206,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6225,7 +6230,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6243,10 +6248,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6257,7 +6262,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6265,7 +6270,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6280,32 +6285,32 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6317,13 +6322,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6341,7 +6346,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6359,10 +6364,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6373,7 +6378,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6396,30 +6401,32 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>79</v>
@@ -6455,7 +6462,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6473,10 +6480,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6487,7 +6494,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6495,7 +6502,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
@@ -6510,15 +6517,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>275</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6531,7 +6540,7 @@
         <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>79</v>
@@ -6567,7 +6576,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6585,10 +6594,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6599,7 +6608,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6622,17 +6631,15 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6681,7 +6688,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6699,10 +6706,10 @@
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6713,7 +6720,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6724,7 +6731,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6736,16 +6743,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6795,13 +6802,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6810,13 +6817,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6827,7 +6834,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6850,16 +6857,16 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6909,7 +6916,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6924,13 +6931,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6939,13 +6946,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6955,7 +6962,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6964,15 +6971,17 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>303</v>
+        <v>101</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7021,7 +7030,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7036,13 +7045,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>307</v>
+        <v>146</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7051,13 +7060,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7067,7 +7076,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7076,13 +7085,13 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7133,7 +7142,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7148,13 +7157,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7163,23 +7172,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -7188,20 +7197,16 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7249,13 +7254,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7264,13 +7269,13 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7281,15 +7286,15 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
@@ -7298,24 +7303,26 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7339,13 +7346,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7363,10 +7370,10 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -7378,24 +7385,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7421,13 +7428,13 @@
         <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7453,13 +7460,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7477,7 +7484,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>87</v>
@@ -7492,24 +7499,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>130</v>
+        <v>335</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7526,26 +7533,24 @@
         <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7569,11 +7574,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7591,13 +7598,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7606,24 +7613,24 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>352</v>
+        <v>130</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7631,31 +7638,35 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>349</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7679,13 +7690,11 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7703,31 +7712,31 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>348</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7735,18 +7744,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7758,17 +7767,15 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7805,31 +7812,31 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7849,11 +7856,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7869,23 +7876,21 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>357</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>358</v>
+        <v>236</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>359</v>
+        <v>237</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7921,19 +7926,19 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>362</v>
+        <v>155</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7945,16 +7950,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7965,7 +7970,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7976,7 +7981,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7985,19 +7990,23 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>359</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8045,28 +8054,28 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>151</v>
+        <v>364</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8077,18 +8086,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8100,17 +8109,15 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8147,31 +8154,31 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
@@ -8191,18 +8198,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -8211,29 +8218,27 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>368</v>
+        <v>236</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>237</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8263,40 +8268,40 @@
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>373</v>
+        <v>155</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8307,7 +8312,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8330,24 +8335,26 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8389,7 +8396,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8407,10 +8414,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8421,7 +8428,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8444,24 +8451,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>79</v>
@@ -8503,7 +8510,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8521,10 +8528,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8535,7 +8542,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8558,24 +8565,24 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>79</v>
@@ -8617,7 +8624,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8635,10 +8642,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8649,7 +8656,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8672,19 +8679,17 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>399</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8733,7 +8738,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8751,10 +8756,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8765,7 +8770,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8788,19 +8793,19 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>401</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8849,7 +8854,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8867,10 +8872,10 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8881,7 +8886,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8904,22 +8909,24 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P58" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8939,13 +8946,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8963,7 +8970,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8978,16 +8985,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8995,7 +9002,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9012,31 +9019,27 @@
         <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>399</v>
+        <v>107</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>79</v>
@@ -9057,13 +9060,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9081,7 +9084,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9096,28 +9099,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9127,31 +9130,35 @@
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="Q60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9171,13 +9178,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9195,7 +9202,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9210,35 +9217,35 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -9253,13 +9260,13 @@
         <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9288,64 +9295,64 @@
         <v>166</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AB61" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9367,13 +9374,13 @@
         <v>163</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9402,28 +9409,26 @@
         <v>166</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="AB62" s="2"/>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9432,7 +9437,7 @@
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>99</v>
@@ -9441,52 +9446,56 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>149</v>
+        <v>458</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9511,13 +9520,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9535,50 +9544,50 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>151</v>
+        <v>447</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>152</v>
+        <v>444</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9590,17 +9599,15 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9637,31 +9644,31 @@
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
@@ -9681,11 +9688,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9701,23 +9708,21 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>357</v>
+        <v>133</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>358</v>
+        <v>236</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>359</v>
+        <v>237</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9741,31 +9746,31 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>362</v>
+        <v>155</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9777,16 +9782,16 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9797,7 +9802,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9808,7 +9813,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9817,19 +9822,23 @@
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>359</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9853,13 +9862,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9877,28 +9886,28 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>151</v>
+        <v>364</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9909,18 +9918,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9932,17 +9941,15 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9979,31 +9986,31 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
@@ -10023,18 +10030,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -10043,29 +10050,27 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>368</v>
+        <v>236</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>369</v>
+        <v>237</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>79</v>
@@ -10095,40 +10100,40 @@
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>373</v>
+        <v>155</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10147,7 +10152,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>87</v>
@@ -10162,24 +10167,26 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>79</v>
@@ -10221,7 +10228,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10239,10 +10246,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10253,7 +10260,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10261,7 +10268,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
@@ -10276,18 +10283,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10335,7 +10342,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10353,10 +10360,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10367,7 +10374,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10375,7 +10382,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
@@ -10390,17 +10397,17 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10449,7 +10456,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10467,10 +10474,10 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10481,7 +10488,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10504,19 +10511,17 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>399</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10565,7 +10570,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10583,10 +10588,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10597,7 +10602,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10620,19 +10625,19 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>401</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10681,7 +10686,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10699,10 +10704,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10713,7 +10718,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10736,17 +10741,19 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>472</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>473</v>
+        <v>410</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="N74" t="s" s="2">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10795,7 +10802,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10813,10 +10820,10 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10825,9 +10832,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10835,13 +10842,13 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10850,16 +10857,18 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10907,10 +10916,10 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>87</v>
@@ -10922,38 +10931,38 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10962,13 +10971,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11019,10 +11028,10 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -11034,28 +11043,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11065,7 +11074,7 @@
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11074,13 +11083,13 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11131,7 +11140,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11146,28 +11155,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11177,7 +11186,7 @@
         <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11186,13 +11195,13 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11219,13 +11228,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11243,7 +11252,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11258,38 +11267,38 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11298,13 +11307,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11331,13 +11340,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11355,7 +11364,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11370,28 +11379,28 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11410,17 +11419,15 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11469,7 +11476,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11484,35 +11491,35 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>88</v>
@@ -11524,16 +11531,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>528</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11559,13 +11566,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11583,7 +11590,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11598,28 +11605,28 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11638,16 +11645,16 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>548</v>
+        <v>163</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11673,13 +11680,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11697,13 +11704,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -11712,38 +11719,38 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11752,15 +11759,17 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>163</v>
+        <v>550</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11785,13 +11794,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11809,7 +11818,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11824,16 +11833,16 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11841,7 +11850,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11864,13 +11873,13 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>562</v>
+        <v>163</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11897,13 +11906,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -11921,7 +11930,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11942,18 +11951,18 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11961,13 +11970,13 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11976,17 +11985,15 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>564</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12011,13 +12018,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12035,7 +12042,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12050,24 +12057,24 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12075,13 +12082,13 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12090,16 +12097,16 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>576</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12125,13 +12132,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12149,7 +12156,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12164,16 +12171,16 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12181,7 +12188,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12201,18 +12208,20 @@
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12261,7 +12270,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12276,28 +12285,28 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>591</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12307,7 +12316,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12316,17 +12325,15 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12375,7 +12382,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12390,13 +12397,13 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12405,13 +12412,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12421,25 +12428,25 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12489,7 +12496,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12504,13 +12511,13 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12519,13 +12526,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12535,7 +12542,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12544,20 +12551,18 @@
         <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>163</v>
+        <v>602</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12581,13 +12586,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>612</v>
+        <v>79</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>613</v>
+        <v>79</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12605,7 +12610,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12623,53 +12628,57 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>615</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>79</v>
+        <v>609</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>149</v>
+        <v>610</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12693,13 +12702,13 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>79</v>
+        <v>614</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>79</v>
+        <v>615</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12717,50 +12726,50 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>151</v>
+        <v>608</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>152</v>
+        <v>616</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12772,17 +12781,15 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12819,31 +12826,31 @@
         <v>79</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
@@ -12863,20 +12870,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -12888,15 +12893,17 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>619</v>
+        <v>133</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>620</v>
+        <v>236</v>
       </c>